--- a/data/data_clean/2020/GNB2020_bgt_exps.xlsx
+++ b/data/data_clean/2020/GNB2020_bgt_exps.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Municipality</t>
   </si>
@@ -62,6 +62,18 @@
   </si>
   <si>
     <t>Total Expenditures</t>
+  </si>
+  <si>
+    <t>Bathurst</t>
+  </si>
+  <si>
+    <t>Campbellton</t>
+  </si>
+  <si>
+    <t>Dieppe</t>
+  </si>
+  <si>
+    <t>Edmundston</t>
   </si>
   <si>
     <t>Fredericton</t>
@@ -412,8 +424,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:P92" totalsRowShown="0">
-  <autoFilter ref="A1:P92"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:P96" totalsRowShown="0">
+  <autoFilter ref="A1:P96"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Municipality" dataDxfId="0"/>
     <tableColumn id="2" name="General Government" dataDxfId="1"/>
@@ -721,7 +733,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P92"/>
+  <dimension ref="A1:P96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -800,49 +812,49 @@
         <v>16</v>
       </c>
       <c r="B2" s="3">
-        <v>13619419</v>
+        <v>3345016</v>
       </c>
       <c r="C2" s="4">
-        <v>22692466</v>
+        <v>4291895</v>
       </c>
       <c r="D2" s="4">
-        <v>15321160</v>
+        <v>2807896</v>
       </c>
       <c r="E2" s="4">
-        <v>1000612</v>
+        <v>500000</v>
       </c>
       <c r="F2" s="4">
-        <v>126051</v>
+        <v>1265480</v>
       </c>
       <c r="G2" s="4">
-        <v>1551025</v>
+        <v>318414</v>
       </c>
       <c r="H2" s="4">
-        <v>20790790</v>
+        <v>4900879</v>
       </c>
       <c r="I2" s="4">
-        <v>2972963</v>
+        <v>364212</v>
       </c>
       <c r="J2" s="4">
-        <v>10421679</v>
+        <v>1000663</v>
       </c>
       <c r="K2" s="4">
         <v>0</v>
       </c>
       <c r="L2" s="4">
-        <v>7911290</v>
+        <v>3322491</v>
       </c>
       <c r="M2" s="3">
-        <v>5539973</v>
+        <v>3195786</v>
       </c>
       <c r="N2" s="4">
-        <v>22431178</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4">
-        <v>0</v>
+        <v>615800</v>
       </c>
       <c r="P2" s="3">
-        <v>124378606</v>
+        <v>25928532</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -850,49 +862,49 @@
         <v>17</v>
       </c>
       <c r="B3" s="3">
-        <v>3443429</v>
+        <v>1481305</v>
       </c>
       <c r="C3" s="4">
-        <v>6014878</v>
+        <v>2633584</v>
       </c>
       <c r="D3" s="4">
-        <v>3605962</v>
+        <v>834360</v>
       </c>
       <c r="E3" s="4">
-        <v>671000</v>
+        <v>10000</v>
       </c>
       <c r="F3" s="4">
-        <v>1077510</v>
+        <v>1643</v>
       </c>
       <c r="G3" s="4">
-        <v>47760</v>
+        <v>173969</v>
       </c>
       <c r="H3" s="4">
-        <v>7296374</v>
+        <v>3459156</v>
       </c>
       <c r="I3" s="4">
-        <v>1235235</v>
+        <v>570729</v>
       </c>
       <c r="J3" s="4">
-        <v>1902514</v>
+        <v>1525426</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
       </c>
       <c r="L3" s="4">
-        <v>4651427</v>
+        <v>2780721</v>
       </c>
       <c r="M3" s="3">
-        <v>3240072</v>
+        <v>1200801</v>
       </c>
       <c r="N3" s="4">
-        <v>2813094</v>
+        <v>175546</v>
       </c>
       <c r="O3" s="4">
         <v>0</v>
       </c>
       <c r="P3" s="3">
-        <v>35999255</v>
+        <v>14847240</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -900,49 +912,49 @@
         <v>18</v>
       </c>
       <c r="B4" s="3">
-        <v>17599813</v>
+        <v>7122122</v>
       </c>
       <c r="C4" s="4">
-        <v>22670502</v>
+        <v>5951848</v>
       </c>
       <c r="D4" s="4">
-        <v>16476546</v>
+        <v>6519226</v>
       </c>
       <c r="E4" s="4">
-        <v>3564663</v>
+        <v>1750000</v>
       </c>
       <c r="F4" s="4">
-        <v>33237</v>
+        <v>6000</v>
       </c>
       <c r="G4" s="4">
-        <v>3611214</v>
+        <v>732328</v>
       </c>
       <c r="H4" s="4">
-        <v>31879422</v>
+        <v>8809055</v>
       </c>
       <c r="I4" s="4">
-        <v>3069860</v>
+        <v>1171502</v>
       </c>
       <c r="J4" s="4">
-        <v>9316005</v>
+        <v>2659156</v>
       </c>
       <c r="K4" s="4">
         <v>0</v>
       </c>
       <c r="L4" s="4">
-        <v>17062341</v>
+        <v>8663108</v>
       </c>
       <c r="M4" s="3">
-        <v>21890800</v>
+        <v>8327000</v>
       </c>
       <c r="N4" s="4">
-        <v>16398220</v>
+        <v>7237396</v>
       </c>
       <c r="O4" s="4">
         <v>0</v>
       </c>
       <c r="P4" s="3">
-        <v>163572623</v>
+        <v>58948741</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -950,49 +962,49 @@
         <v>19</v>
       </c>
       <c r="B5" s="3">
-        <v>14531161</v>
+        <v>3866057</v>
       </c>
       <c r="C5" s="4">
-        <v>26095633</v>
+        <v>5561727</v>
       </c>
       <c r="D5" s="4">
-        <v>24911346</v>
+        <v>2480974</v>
       </c>
       <c r="E5" s="4">
-        <v>2500000</v>
+        <v>536820</v>
       </c>
       <c r="F5" s="4">
-        <v>2919164</v>
+        <v>1169919</v>
       </c>
       <c r="G5" s="4">
-        <v>2352817</v>
+        <v>392337</v>
       </c>
       <c r="H5" s="4">
-        <v>30038472</v>
+        <v>7664754</v>
       </c>
       <c r="I5" s="4">
-        <v>5637400</v>
+        <v>832979</v>
       </c>
       <c r="J5" s="4">
-        <v>12807537</v>
+        <v>1958845</v>
       </c>
       <c r="K5" s="4">
         <v>0</v>
       </c>
       <c r="L5" s="4">
-        <v>10907650</v>
+        <v>5537101</v>
       </c>
       <c r="M5" s="3">
-        <v>18687301</v>
+        <v>4670099</v>
       </c>
       <c r="N5" s="4">
-        <v>15200028</v>
+        <v>839073</v>
       </c>
       <c r="O5" s="4">
-        <v>119915</v>
+        <v>0</v>
       </c>
       <c r="P5" s="3">
-        <v>166708424</v>
+        <v>35510685</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1000,49 +1012,49 @@
         <v>20</v>
       </c>
       <c r="B6" s="3">
-        <v>1028321</v>
+        <v>13619419</v>
       </c>
       <c r="C6" s="4">
-        <v>1160977</v>
+        <v>22692466</v>
       </c>
       <c r="D6" s="4">
-        <v>147850</v>
+        <v>15321160</v>
       </c>
       <c r="E6" s="4">
-        <v>400000</v>
+        <v>1000612</v>
       </c>
       <c r="F6" s="4">
-        <v>8000</v>
+        <v>126051</v>
       </c>
       <c r="G6" s="4">
-        <v>46235</v>
+        <v>1551025</v>
       </c>
       <c r="H6" s="4">
-        <v>937382</v>
+        <v>20790790</v>
       </c>
       <c r="I6" s="4">
-        <v>226079</v>
+        <v>2972963</v>
       </c>
       <c r="J6" s="4">
-        <v>0</v>
+        <v>10421679</v>
       </c>
       <c r="K6" s="4">
-        <v>146280</v>
+        <v>0</v>
       </c>
       <c r="L6" s="4">
-        <v>774318</v>
+        <v>7911290</v>
       </c>
       <c r="M6" s="3">
-        <v>337865</v>
+        <v>5539973</v>
       </c>
       <c r="N6" s="4">
-        <v>462693</v>
+        <v>22431178</v>
       </c>
       <c r="O6" s="4">
         <v>0</v>
       </c>
       <c r="P6" s="3">
-        <v>5676000</v>
+        <v>124378606</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1050,49 +1062,49 @@
         <v>21</v>
       </c>
       <c r="B7" s="3">
-        <v>520311</v>
+        <v>3443429</v>
       </c>
       <c r="C7" s="4">
-        <v>433399</v>
+        <v>6014878</v>
       </c>
       <c r="D7" s="4">
-        <v>169672</v>
+        <v>3605962</v>
       </c>
       <c r="E7" s="4">
-        <v>40000</v>
+        <v>671000</v>
       </c>
       <c r="F7" s="4">
-        <v>1000</v>
+        <v>1077510</v>
       </c>
       <c r="G7" s="4">
-        <v>16500</v>
+        <v>47760</v>
       </c>
       <c r="H7" s="4">
-        <v>874454</v>
+        <v>7296374</v>
       </c>
       <c r="I7" s="4">
-        <v>160279</v>
+        <v>1235235</v>
       </c>
       <c r="J7" s="4">
-        <v>0</v>
+        <v>1902514</v>
       </c>
       <c r="K7" s="4">
-        <v>311920</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4">
-        <v>1183162</v>
+        <v>4651427</v>
       </c>
       <c r="M7" s="3">
-        <v>363336</v>
+        <v>3240072</v>
       </c>
       <c r="N7" s="4">
-        <v>25000</v>
+        <v>2813094</v>
       </c>
       <c r="O7" s="4">
         <v>0</v>
       </c>
       <c r="P7" s="3">
-        <v>4099033</v>
+        <v>35999255</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1100,49 +1112,49 @@
         <v>22</v>
       </c>
       <c r="B8" s="3">
-        <v>1475892</v>
+        <v>17599813</v>
       </c>
       <c r="C8" s="4">
-        <v>934709</v>
+        <v>22670502</v>
       </c>
       <c r="D8" s="4">
-        <v>178799</v>
+        <v>16476546</v>
       </c>
       <c r="E8" s="4">
-        <v>69000</v>
+        <v>3564663</v>
       </c>
       <c r="F8" s="4">
-        <v>4601</v>
+        <v>33237</v>
       </c>
       <c r="G8" s="4">
-        <v>7121</v>
+        <v>3611214</v>
       </c>
       <c r="H8" s="4">
-        <v>1530837</v>
+        <v>31879422</v>
       </c>
       <c r="I8" s="4">
-        <v>265720</v>
+        <v>3069860</v>
       </c>
       <c r="J8" s="4">
-        <v>0</v>
+        <v>9316005</v>
       </c>
       <c r="K8" s="4">
-        <v>889584</v>
+        <v>0</v>
       </c>
       <c r="L8" s="4">
-        <v>959633</v>
+        <v>17062341</v>
       </c>
       <c r="M8" s="3">
-        <v>987597</v>
+        <v>21890800</v>
       </c>
       <c r="N8" s="4">
-        <v>5808</v>
+        <v>16398220</v>
       </c>
       <c r="O8" s="4">
-        <v>144699</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>7454000</v>
+        <v>163572623</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1150,49 +1162,49 @@
         <v>23</v>
       </c>
       <c r="B9" s="3">
-        <v>873543</v>
+        <v>14531161</v>
       </c>
       <c r="C9" s="4">
-        <v>651993</v>
+        <v>26095633</v>
       </c>
       <c r="D9" s="4">
-        <v>204050</v>
+        <v>24911346</v>
       </c>
       <c r="E9" s="4">
-        <v>290913</v>
+        <v>2500000</v>
       </c>
       <c r="F9" s="4">
-        <v>7500</v>
+        <v>2919164</v>
       </c>
       <c r="G9" s="4">
-        <v>18300</v>
+        <v>2352817</v>
       </c>
       <c r="H9" s="4">
-        <v>2101414</v>
+        <v>30038472</v>
       </c>
       <c r="I9" s="4">
-        <v>275000</v>
+        <v>5637400</v>
       </c>
       <c r="J9" s="4">
-        <v>0</v>
+        <v>12807537</v>
       </c>
       <c r="K9" s="4">
-        <v>252520</v>
+        <v>0</v>
       </c>
       <c r="L9" s="4">
-        <v>843656</v>
+        <v>10907650</v>
       </c>
       <c r="M9" s="3">
-        <v>113157</v>
+        <v>18687301</v>
       </c>
       <c r="N9" s="4">
-        <v>210000</v>
+        <v>15200028</v>
       </c>
       <c r="O9" s="4">
-        <v>0</v>
+        <v>119915</v>
       </c>
       <c r="P9" s="3">
-        <v>5842046</v>
+        <v>166708424</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1200,49 +1212,49 @@
         <v>24</v>
       </c>
       <c r="B10" s="3">
-        <v>574165</v>
+        <v>1028321</v>
       </c>
       <c r="C10" s="4">
-        <v>493689</v>
+        <v>1160977</v>
       </c>
       <c r="D10" s="4">
-        <v>173415</v>
+        <v>147850</v>
       </c>
       <c r="E10" s="4">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="F10" s="4">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G10" s="4">
-        <v>4400</v>
+        <v>46235</v>
       </c>
       <c r="H10" s="4">
-        <v>605002</v>
+        <v>937382</v>
       </c>
       <c r="I10" s="4">
-        <v>103035</v>
+        <v>226079</v>
       </c>
       <c r="J10" s="4">
-        <v>13050</v>
+        <v>0</v>
       </c>
       <c r="K10" s="4">
-        <v>445678</v>
+        <v>146280</v>
       </c>
       <c r="L10" s="4">
-        <v>826807</v>
+        <v>774318</v>
       </c>
       <c r="M10" s="3">
-        <v>3500</v>
+        <v>337865</v>
       </c>
       <c r="N10" s="4">
-        <v>290723</v>
+        <v>462693</v>
       </c>
       <c r="O10" s="4">
         <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>3534464</v>
+        <v>5676000</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1250,49 +1262,49 @@
         <v>25</v>
       </c>
       <c r="B11" s="3">
-        <v>831462</v>
+        <v>520311</v>
       </c>
       <c r="C11" s="4">
-        <v>716748</v>
+        <v>433399</v>
       </c>
       <c r="D11" s="4">
-        <v>690566</v>
+        <v>169672</v>
       </c>
       <c r="E11" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="F11" s="4">
-        <v>17140</v>
+        <v>1000</v>
       </c>
       <c r="G11" s="4">
-        <v>21568</v>
+        <v>16500</v>
       </c>
       <c r="H11" s="4">
-        <v>1761846</v>
+        <v>874454</v>
       </c>
       <c r="I11" s="4">
-        <v>1069</v>
+        <v>160279</v>
       </c>
       <c r="J11" s="4">
         <v>0</v>
       </c>
       <c r="K11" s="4">
-        <v>267979</v>
+        <v>311920</v>
       </c>
       <c r="L11" s="4">
-        <v>748225</v>
+        <v>1183162</v>
       </c>
       <c r="M11" s="3">
-        <v>304867</v>
+        <v>363336</v>
       </c>
       <c r="N11" s="4">
-        <v>990000</v>
+        <v>25000</v>
       </c>
       <c r="O11" s="4">
         <v>0</v>
       </c>
       <c r="P11" s="3">
-        <v>6351470</v>
+        <v>4099033</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1300,49 +1312,49 @@
         <v>26</v>
       </c>
       <c r="B12" s="3">
-        <v>1518644</v>
+        <v>1475892</v>
       </c>
       <c r="C12" s="4">
-        <v>2034317</v>
+        <v>934709</v>
       </c>
       <c r="D12" s="4">
-        <v>292469</v>
+        <v>178799</v>
       </c>
       <c r="E12" s="4">
-        <v>180000</v>
+        <v>69000</v>
       </c>
       <c r="F12" s="4">
-        <v>0</v>
+        <v>4601</v>
       </c>
       <c r="G12" s="4">
-        <v>6000</v>
+        <v>7121</v>
       </c>
       <c r="H12" s="4">
-        <v>1942824</v>
+        <v>1530837</v>
       </c>
       <c r="I12" s="4">
-        <v>323915</v>
+        <v>265720</v>
       </c>
       <c r="J12" s="4">
         <v>0</v>
       </c>
       <c r="K12" s="4">
-        <v>1186230</v>
+        <v>889584</v>
       </c>
       <c r="L12" s="4">
-        <v>1952278</v>
+        <v>959633</v>
       </c>
       <c r="M12" s="3">
-        <v>1225174</v>
+        <v>987597</v>
       </c>
       <c r="N12" s="4">
-        <v>366087</v>
+        <v>5808</v>
       </c>
       <c r="O12" s="4">
-        <v>0</v>
+        <v>144699</v>
       </c>
       <c r="P12" s="3">
-        <v>11027938</v>
+        <v>7454000</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1350,49 +1362,49 @@
         <v>27</v>
       </c>
       <c r="B13" s="3">
-        <v>933347</v>
+        <v>873543</v>
       </c>
       <c r="C13" s="4">
-        <v>765125</v>
+        <v>651993</v>
       </c>
       <c r="D13" s="4">
-        <v>434194</v>
+        <v>204050</v>
       </c>
       <c r="E13" s="4">
-        <v>0</v>
+        <v>290913</v>
       </c>
       <c r="F13" s="4">
-        <v>21555</v>
+        <v>7500</v>
       </c>
       <c r="G13" s="4">
-        <v>201831</v>
+        <v>18300</v>
       </c>
       <c r="H13" s="4">
-        <v>1016650</v>
+        <v>2101414</v>
       </c>
       <c r="I13" s="4">
-        <v>332058</v>
+        <v>275000</v>
       </c>
       <c r="J13" s="4">
         <v>0</v>
       </c>
       <c r="K13" s="4">
-        <v>154685</v>
+        <v>252520</v>
       </c>
       <c r="L13" s="4">
-        <v>1495557</v>
+        <v>843656</v>
       </c>
       <c r="M13" s="3">
-        <v>775022</v>
+        <v>113157</v>
       </c>
       <c r="N13" s="4">
-        <v>29100</v>
+        <v>210000</v>
       </c>
       <c r="O13" s="4">
-        <v>18380</v>
+        <v>0</v>
       </c>
       <c r="P13" s="3">
-        <v>6177504</v>
+        <v>5842046</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1400,49 +1412,49 @@
         <v>28</v>
       </c>
       <c r="B14" s="3">
-        <v>297250</v>
+        <v>574165</v>
       </c>
       <c r="C14" s="4">
-        <v>227718</v>
+        <v>493689</v>
       </c>
       <c r="D14" s="4">
-        <v>219445</v>
+        <v>173415</v>
       </c>
       <c r="E14" s="4">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="4">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="G14" s="4">
-        <v>2760</v>
+        <v>4400</v>
       </c>
       <c r="H14" s="4">
-        <v>344500</v>
+        <v>605002</v>
       </c>
       <c r="I14" s="4">
-        <v>75500</v>
+        <v>103035</v>
       </c>
       <c r="J14" s="4">
-        <v>0</v>
+        <v>13050</v>
       </c>
       <c r="K14" s="4">
-        <v>56970</v>
+        <v>445678</v>
       </c>
       <c r="L14" s="4">
-        <v>363297</v>
+        <v>826807</v>
       </c>
       <c r="M14" s="3">
-        <v>108200</v>
+        <v>3500</v>
       </c>
       <c r="N14" s="4">
-        <v>0</v>
+        <v>290723</v>
       </c>
       <c r="O14" s="4">
         <v>0</v>
       </c>
       <c r="P14" s="3">
-        <v>1760640</v>
+        <v>3534464</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1450,49 +1462,49 @@
         <v>29</v>
       </c>
       <c r="B15" s="3">
-        <v>334719</v>
+        <v>831462</v>
       </c>
       <c r="C15" s="4">
-        <v>249942</v>
+        <v>716748</v>
       </c>
       <c r="D15" s="4">
-        <v>182908</v>
+        <v>690566</v>
       </c>
       <c r="E15" s="4">
-        <v>44000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="4">
-        <v>0</v>
+        <v>17140</v>
       </c>
       <c r="G15" s="4">
-        <v>2700</v>
+        <v>21568</v>
       </c>
       <c r="H15" s="4">
-        <v>355937</v>
+        <v>1761846</v>
       </c>
       <c r="I15" s="4">
-        <v>78890</v>
+        <v>1069</v>
       </c>
       <c r="J15" s="4">
         <v>0</v>
       </c>
       <c r="K15" s="4">
-        <v>76553</v>
+        <v>267979</v>
       </c>
       <c r="L15" s="4">
-        <v>344114</v>
+        <v>748225</v>
       </c>
       <c r="M15" s="3">
-        <v>304865</v>
+        <v>304867</v>
       </c>
       <c r="N15" s="4">
-        <v>49342</v>
+        <v>990000</v>
       </c>
       <c r="O15" s="4">
         <v>0</v>
       </c>
       <c r="P15" s="3">
-        <v>2023970</v>
+        <v>6351470</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1500,49 +1512,49 @@
         <v>30</v>
       </c>
       <c r="B16" s="3">
-        <v>205015</v>
+        <v>1518644</v>
       </c>
       <c r="C16" s="4">
-        <v>144561</v>
+        <v>2034317</v>
       </c>
       <c r="D16" s="4">
-        <v>188813</v>
+        <v>292469</v>
       </c>
       <c r="E16" s="4">
-        <v>42000</v>
+        <v>180000</v>
       </c>
       <c r="F16" s="4">
-        <v>3480</v>
+        <v>0</v>
       </c>
       <c r="G16" s="4">
-        <v>15527</v>
+        <v>6000</v>
       </c>
       <c r="H16" s="4">
-        <v>347656</v>
+        <v>1942824</v>
       </c>
       <c r="I16" s="4">
-        <v>94075</v>
+        <v>323915</v>
       </c>
       <c r="J16" s="4">
         <v>0</v>
       </c>
       <c r="K16" s="4">
-        <v>84327</v>
+        <v>1186230</v>
       </c>
       <c r="L16" s="4">
-        <v>358546</v>
+        <v>1952278</v>
       </c>
       <c r="M16" s="3">
-        <v>75046</v>
+        <v>1225174</v>
       </c>
       <c r="N16" s="4">
-        <v>47046</v>
+        <v>366087</v>
       </c>
       <c r="O16" s="4">
         <v>0</v>
       </c>
       <c r="P16" s="3">
-        <v>1606092</v>
+        <v>11027938</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1550,49 +1562,49 @@
         <v>31</v>
       </c>
       <c r="B17" s="3">
-        <v>3117111</v>
+        <v>933347</v>
       </c>
       <c r="C17" s="4">
-        <v>2022235</v>
+        <v>765125</v>
       </c>
       <c r="D17" s="4">
-        <v>3829990</v>
+        <v>434194</v>
       </c>
       <c r="E17" s="4">
-        <v>425000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="4">
-        <v>37850</v>
+        <v>21555</v>
       </c>
       <c r="G17" s="4">
-        <v>197346</v>
+        <v>201831</v>
       </c>
       <c r="H17" s="4">
-        <v>3092620</v>
+        <v>1016650</v>
       </c>
       <c r="I17" s="4">
-        <v>738607</v>
+        <v>332058</v>
       </c>
       <c r="J17" s="4">
         <v>0</v>
       </c>
       <c r="K17" s="4">
-        <v>752770</v>
+        <v>154685</v>
       </c>
       <c r="L17" s="4">
-        <v>1896279</v>
+        <v>1495557</v>
       </c>
       <c r="M17" s="3">
-        <v>926541</v>
+        <v>775022</v>
       </c>
       <c r="N17" s="4">
-        <v>1758727</v>
+        <v>29100</v>
       </c>
       <c r="O17" s="4">
-        <v>0</v>
+        <v>18380</v>
       </c>
       <c r="P17" s="3">
-        <v>18795076</v>
+        <v>6177504</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1600,49 +1612,49 @@
         <v>32</v>
       </c>
       <c r="B18" s="3">
-        <v>2687608</v>
+        <v>297250</v>
       </c>
       <c r="C18" s="4">
-        <v>4008952</v>
+        <v>227718</v>
       </c>
       <c r="D18" s="4">
-        <v>3869681</v>
+        <v>219445</v>
       </c>
       <c r="E18" s="4">
-        <v>111529</v>
+        <v>60000</v>
       </c>
       <c r="F18" s="4">
-        <v>268386</v>
+        <v>5000</v>
       </c>
       <c r="G18" s="4">
-        <v>284205</v>
+        <v>2760</v>
       </c>
       <c r="H18" s="4">
-        <v>4609338</v>
+        <v>344500</v>
       </c>
       <c r="I18" s="4">
-        <v>1034795</v>
+        <v>75500</v>
       </c>
       <c r="J18" s="4">
         <v>0</v>
       </c>
       <c r="K18" s="4">
-        <v>477704</v>
+        <v>56970</v>
       </c>
       <c r="L18" s="4">
-        <v>4901604</v>
+        <v>363297</v>
       </c>
       <c r="M18" s="3">
-        <v>2133733</v>
+        <v>108200</v>
       </c>
       <c r="N18" s="4">
-        <v>1397159</v>
+        <v>0</v>
       </c>
       <c r="O18" s="4">
         <v>0</v>
       </c>
       <c r="P18" s="3">
-        <v>25784694</v>
+        <v>1760640</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1650,49 +1662,49 @@
         <v>33</v>
       </c>
       <c r="B19" s="3">
-        <v>458997</v>
+        <v>334719</v>
       </c>
       <c r="C19" s="4">
-        <v>297122</v>
+        <v>249942</v>
       </c>
       <c r="D19" s="4">
-        <v>108146</v>
+        <v>182908</v>
       </c>
       <c r="E19" s="4">
-        <v>0</v>
+        <v>44000</v>
       </c>
       <c r="F19" s="4">
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="G19" s="4">
-        <v>7850</v>
+        <v>2700</v>
       </c>
       <c r="H19" s="4">
-        <v>315808</v>
+        <v>355937</v>
       </c>
       <c r="I19" s="4">
-        <v>98105</v>
+        <v>78890</v>
       </c>
       <c r="J19" s="4">
         <v>0</v>
       </c>
       <c r="K19" s="4">
-        <v>247685</v>
+        <v>76553</v>
       </c>
       <c r="L19" s="4">
-        <v>859154</v>
+        <v>344114</v>
       </c>
       <c r="M19" s="3">
-        <v>222210</v>
+        <v>304865</v>
       </c>
       <c r="N19" s="4">
-        <v>9000</v>
+        <v>49342</v>
       </c>
       <c r="O19" s="4">
-        <v>87395</v>
+        <v>0</v>
       </c>
       <c r="P19" s="3">
-        <v>2711964</v>
+        <v>2023970</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1700,49 +1712,49 @@
         <v>34</v>
       </c>
       <c r="B20" s="3">
-        <v>2632159</v>
+        <v>205015</v>
       </c>
       <c r="C20" s="4">
-        <v>3703633</v>
+        <v>144561</v>
       </c>
       <c r="D20" s="4">
-        <v>3261931</v>
+        <v>188813</v>
       </c>
       <c r="E20" s="4">
-        <v>300000</v>
+        <v>42000</v>
       </c>
       <c r="F20" s="4">
-        <v>15000</v>
+        <v>3480</v>
       </c>
       <c r="G20" s="4">
-        <v>327274</v>
+        <v>15527</v>
       </c>
       <c r="H20" s="4">
-        <v>4020959</v>
+        <v>347656</v>
       </c>
       <c r="I20" s="4">
-        <v>907865</v>
+        <v>94075</v>
       </c>
       <c r="J20" s="4">
         <v>0</v>
       </c>
       <c r="K20" s="4">
-        <v>1326561</v>
+        <v>84327</v>
       </c>
       <c r="L20" s="4">
-        <v>5083465</v>
+        <v>358546</v>
       </c>
       <c r="M20" s="3">
-        <v>2867288</v>
+        <v>75046</v>
       </c>
       <c r="N20" s="4">
-        <v>5593891</v>
+        <v>47046</v>
       </c>
       <c r="O20" s="4">
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>30040026</v>
+        <v>1606092</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1750,49 +1762,49 @@
         <v>35</v>
       </c>
       <c r="B21" s="3">
-        <v>2308843</v>
+        <v>3117111</v>
       </c>
       <c r="C21" s="4">
-        <v>2584445</v>
+        <v>2022235</v>
       </c>
       <c r="D21" s="4">
-        <v>2225646</v>
+        <v>3829990</v>
       </c>
       <c r="E21" s="4">
-        <v>325000</v>
+        <v>425000</v>
       </c>
       <c r="F21" s="4">
-        <v>176755</v>
+        <v>37850</v>
       </c>
       <c r="G21" s="4">
-        <v>19500</v>
+        <v>197346</v>
       </c>
       <c r="H21" s="4">
-        <v>3606767</v>
+        <v>3092620</v>
       </c>
       <c r="I21" s="4">
-        <v>658000</v>
+        <v>738607</v>
       </c>
       <c r="J21" s="4">
         <v>0</v>
       </c>
       <c r="K21" s="4">
-        <v>605940</v>
+        <v>752770</v>
       </c>
       <c r="L21" s="4">
-        <v>2112991</v>
+        <v>1896279</v>
       </c>
       <c r="M21" s="3">
-        <v>951113</v>
+        <v>926541</v>
       </c>
       <c r="N21" s="4">
-        <v>2750000</v>
+        <v>1758727</v>
       </c>
       <c r="O21" s="4">
         <v>0</v>
       </c>
       <c r="P21" s="3">
-        <v>18325000</v>
+        <v>18795076</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1800,49 +1812,49 @@
         <v>36</v>
       </c>
       <c r="B22" s="3">
-        <v>1678053</v>
+        <v>2687608</v>
       </c>
       <c r="C22" s="4">
-        <v>1758631</v>
+        <v>4008952</v>
       </c>
       <c r="D22" s="4">
-        <v>538038</v>
+        <v>3869681</v>
       </c>
       <c r="E22" s="4">
-        <v>336000</v>
+        <v>111529</v>
       </c>
       <c r="F22" s="4">
-        <v>18000</v>
+        <v>268386</v>
       </c>
       <c r="G22" s="4">
-        <v>133612</v>
+        <v>284205</v>
       </c>
       <c r="H22" s="4">
-        <v>1967517</v>
+        <v>4609338</v>
       </c>
       <c r="I22" s="4">
-        <v>350904</v>
+        <v>1034795</v>
       </c>
       <c r="J22" s="4">
         <v>0</v>
       </c>
       <c r="K22" s="4">
-        <v>887733</v>
+        <v>477704</v>
       </c>
       <c r="L22" s="4">
-        <v>1398041</v>
+        <v>4901604</v>
       </c>
       <c r="M22" s="3">
-        <v>1058886</v>
+        <v>2133733</v>
       </c>
       <c r="N22" s="4">
-        <v>1260170</v>
+        <v>1397159</v>
       </c>
       <c r="O22" s="4">
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>11385585</v>
+        <v>25784694</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1850,49 +1862,49 @@
         <v>37</v>
       </c>
       <c r="B23" s="3">
-        <v>1070252</v>
+        <v>458997</v>
       </c>
       <c r="C23" s="4">
-        <v>454075</v>
+        <v>297122</v>
       </c>
       <c r="D23" s="4">
-        <v>259480</v>
+        <v>108146</v>
       </c>
       <c r="E23" s="4">
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="4">
-        <v>4500</v>
+        <v>492</v>
       </c>
       <c r="G23" s="4">
-        <v>15680</v>
+        <v>7850</v>
       </c>
       <c r="H23" s="4">
-        <v>781488</v>
+        <v>315808</v>
       </c>
       <c r="I23" s="4">
-        <v>163633</v>
+        <v>98105</v>
       </c>
       <c r="J23" s="4">
-        <v>72667</v>
+        <v>0</v>
       </c>
       <c r="K23" s="4">
-        <v>408220</v>
+        <v>247685</v>
       </c>
       <c r="L23" s="4">
-        <v>908191</v>
+        <v>859154</v>
       </c>
       <c r="M23" s="3">
-        <v>290052</v>
+        <v>222210</v>
       </c>
       <c r="N23" s="4">
-        <v>646420</v>
+        <v>9000</v>
       </c>
       <c r="O23" s="4">
-        <v>0</v>
+        <v>87395</v>
       </c>
       <c r="P23" s="3">
-        <v>5149658</v>
+        <v>2711964</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1900,49 +1912,49 @@
         <v>38</v>
       </c>
       <c r="B24" s="3">
-        <v>292553</v>
+        <v>2632159</v>
       </c>
       <c r="C24" s="4">
-        <v>222105</v>
+        <v>3703633</v>
       </c>
       <c r="D24" s="4">
-        <v>111004</v>
+        <v>3261931</v>
       </c>
       <c r="E24" s="4">
-        <v>36000</v>
+        <v>300000</v>
       </c>
       <c r="F24" s="4">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="G24" s="4">
-        <v>2500</v>
+        <v>327274</v>
       </c>
       <c r="H24" s="4">
-        <v>281563</v>
+        <v>4020959</v>
       </c>
       <c r="I24" s="4">
-        <v>76840</v>
+        <v>907865</v>
       </c>
       <c r="J24" s="4">
         <v>0</v>
       </c>
       <c r="K24" s="4">
-        <v>64541</v>
+        <v>1326561</v>
       </c>
       <c r="L24" s="4">
-        <v>389587</v>
+        <v>5083465</v>
       </c>
       <c r="M24" s="3">
-        <v>319948</v>
+        <v>2867288</v>
       </c>
       <c r="N24" s="4">
-        <v>84284</v>
+        <v>5593891</v>
       </c>
       <c r="O24" s="4">
-        <v>11990</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>1893915</v>
+        <v>30040026</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1950,49 +1962,49 @@
         <v>39</v>
       </c>
       <c r="B25" s="3">
-        <v>811285</v>
+        <v>2308843</v>
       </c>
       <c r="C25" s="4">
-        <v>376469</v>
+        <v>2584445</v>
       </c>
       <c r="D25" s="4">
-        <v>136235</v>
+        <v>2225646</v>
       </c>
       <c r="E25" s="4">
-        <v>13800</v>
+        <v>325000</v>
       </c>
       <c r="F25" s="4">
-        <v>7600</v>
+        <v>176755</v>
       </c>
       <c r="G25" s="4">
-        <v>5364</v>
+        <v>19500</v>
       </c>
       <c r="H25" s="4">
-        <v>561970</v>
+        <v>3606767</v>
       </c>
       <c r="I25" s="4">
-        <v>143568</v>
+        <v>658000</v>
       </c>
       <c r="J25" s="4">
         <v>0</v>
       </c>
       <c r="K25" s="4">
-        <v>267160</v>
+        <v>605940</v>
       </c>
       <c r="L25" s="4">
-        <v>473668</v>
+        <v>2112991</v>
       </c>
       <c r="M25" s="3">
-        <v>202147</v>
+        <v>951113</v>
       </c>
       <c r="N25" s="4">
-        <v>187000</v>
+        <v>2750000</v>
       </c>
       <c r="O25" s="4">
         <v>0</v>
       </c>
       <c r="P25" s="3">
-        <v>3186266</v>
+        <v>18325000</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2000,49 +2012,49 @@
         <v>40</v>
       </c>
       <c r="B26" s="3">
-        <v>1790194</v>
+        <v>1678053</v>
       </c>
       <c r="C26" s="4">
-        <v>1436785</v>
+        <v>1758631</v>
       </c>
       <c r="D26" s="4">
-        <v>562861</v>
+        <v>538038</v>
       </c>
       <c r="E26" s="4">
-        <v>205000</v>
+        <v>336000</v>
       </c>
       <c r="F26" s="4">
-        <v>11600</v>
+        <v>18000</v>
       </c>
       <c r="G26" s="4">
-        <v>106007</v>
+        <v>133612</v>
       </c>
       <c r="H26" s="4">
-        <v>2354094</v>
+        <v>1967517</v>
       </c>
       <c r="I26" s="4">
-        <v>358456</v>
+        <v>350904</v>
       </c>
       <c r="J26" s="4">
         <v>0</v>
       </c>
       <c r="K26" s="4">
-        <v>1316398</v>
+        <v>887733</v>
       </c>
       <c r="L26" s="4">
-        <v>2163960</v>
+        <v>1398041</v>
       </c>
       <c r="M26" s="3">
-        <v>1519850</v>
+        <v>1058886</v>
       </c>
       <c r="N26" s="4">
-        <v>1245030</v>
+        <v>1260170</v>
       </c>
       <c r="O26" s="4">
         <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>13070235</v>
+        <v>11385585</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2050,49 +2062,49 @@
         <v>41</v>
       </c>
       <c r="B27" s="3">
-        <v>1022372</v>
+        <v>1070252</v>
       </c>
       <c r="C27" s="4">
-        <v>574110</v>
+        <v>454075</v>
       </c>
       <c r="D27" s="4">
-        <v>212542</v>
+        <v>259480</v>
       </c>
       <c r="E27" s="4">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="F27" s="4">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="G27" s="4">
-        <v>4371</v>
+        <v>15680</v>
       </c>
       <c r="H27" s="4">
-        <v>1015786</v>
+        <v>781488</v>
       </c>
       <c r="I27" s="4">
-        <v>139257</v>
+        <v>163633</v>
       </c>
       <c r="J27" s="4">
-        <v>0</v>
+        <v>72667</v>
       </c>
       <c r="K27" s="4">
-        <v>148717</v>
+        <v>408220</v>
       </c>
       <c r="L27" s="4">
-        <v>1410211</v>
+        <v>908191</v>
       </c>
       <c r="M27" s="3">
-        <v>557700</v>
+        <v>290052</v>
       </c>
       <c r="N27" s="4">
-        <v>23638</v>
+        <v>646420</v>
       </c>
       <c r="O27" s="4">
         <v>0</v>
       </c>
       <c r="P27" s="3">
-        <v>5218704</v>
+        <v>5149658</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2100,49 +2112,49 @@
         <v>42</v>
       </c>
       <c r="B28" s="3">
-        <v>345544</v>
+        <v>292553</v>
       </c>
       <c r="C28" s="4">
-        <v>442001</v>
+        <v>222105</v>
       </c>
       <c r="D28" s="4">
-        <v>232750</v>
+        <v>111004</v>
       </c>
       <c r="E28" s="4">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="F28" s="4">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="G28" s="4">
-        <v>33300</v>
+        <v>2500</v>
       </c>
       <c r="H28" s="4">
-        <v>549650</v>
+        <v>281563</v>
       </c>
       <c r="I28" s="4">
-        <v>124000</v>
+        <v>76840</v>
       </c>
       <c r="J28" s="4">
-        <v>27600</v>
+        <v>0</v>
       </c>
       <c r="K28" s="4">
-        <v>63695</v>
+        <v>64541</v>
       </c>
       <c r="L28" s="4">
-        <v>95000</v>
+        <v>389587</v>
       </c>
       <c r="M28" s="3">
-        <v>195116</v>
+        <v>319948</v>
       </c>
       <c r="N28" s="4">
-        <v>196168</v>
+        <v>84284</v>
       </c>
       <c r="O28" s="4">
-        <v>0</v>
+        <v>11990</v>
       </c>
       <c r="P28" s="3">
-        <v>2366174</v>
+        <v>1893915</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2150,49 +2162,49 @@
         <v>43</v>
       </c>
       <c r="B29" s="3">
-        <v>1105702</v>
+        <v>811285</v>
       </c>
       <c r="C29" s="4">
-        <v>1222714</v>
+        <v>376469</v>
       </c>
       <c r="D29" s="4">
-        <v>851916</v>
+        <v>136235</v>
       </c>
       <c r="E29" s="4">
-        <v>125000</v>
+        <v>13800</v>
       </c>
       <c r="F29" s="4">
-        <v>0</v>
+        <v>7600</v>
       </c>
       <c r="G29" s="4">
-        <v>143271</v>
+        <v>5364</v>
       </c>
       <c r="H29" s="4">
-        <v>2154100</v>
+        <v>561970</v>
       </c>
       <c r="I29" s="4">
-        <v>230320</v>
+        <v>143568</v>
       </c>
       <c r="J29" s="4">
         <v>0</v>
       </c>
       <c r="K29" s="4">
-        <v>353382</v>
+        <v>267160</v>
       </c>
       <c r="L29" s="4">
-        <v>2223274</v>
+        <v>473668</v>
       </c>
       <c r="M29" s="3">
-        <v>611018</v>
+        <v>202147</v>
       </c>
       <c r="N29" s="4">
-        <v>379426</v>
+        <v>187000</v>
       </c>
       <c r="O29" s="4">
         <v>0</v>
       </c>
       <c r="P29" s="3">
-        <v>9400123</v>
+        <v>3186266</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2200,49 +2212,49 @@
         <v>44</v>
       </c>
       <c r="B30" s="3">
-        <v>789260</v>
+        <v>1790194</v>
       </c>
       <c r="C30" s="4">
-        <v>1087812</v>
+        <v>1436785</v>
       </c>
       <c r="D30" s="4">
-        <v>773800</v>
+        <v>562861</v>
       </c>
       <c r="E30" s="4">
-        <v>147000</v>
+        <v>205000</v>
       </c>
       <c r="F30" s="4">
-        <v>26000</v>
+        <v>11600</v>
       </c>
       <c r="G30" s="4">
-        <v>98200</v>
+        <v>106007</v>
       </c>
       <c r="H30" s="4">
-        <v>1676800</v>
+        <v>2354094</v>
       </c>
       <c r="I30" s="4">
-        <v>454600</v>
+        <v>358456</v>
       </c>
       <c r="J30" s="4">
         <v>0</v>
       </c>
       <c r="K30" s="4">
-        <v>408200</v>
+        <v>1316398</v>
       </c>
       <c r="L30" s="4">
-        <v>1242850</v>
+        <v>2163960</v>
       </c>
       <c r="M30" s="3">
-        <v>519550</v>
+        <v>1519850</v>
       </c>
       <c r="N30" s="4">
-        <v>55200</v>
+        <v>1245030</v>
       </c>
       <c r="O30" s="4">
         <v>0</v>
       </c>
       <c r="P30" s="3">
-        <v>7279272</v>
+        <v>13070235</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2250,49 +2262,49 @@
         <v>45</v>
       </c>
       <c r="B31" s="3">
-        <v>878314</v>
+        <v>1022372</v>
       </c>
       <c r="C31" s="4">
-        <v>2392700</v>
+        <v>574110</v>
       </c>
       <c r="D31" s="4">
-        <v>687925</v>
+        <v>212542</v>
       </c>
       <c r="E31" s="4">
-        <v>188000</v>
+        <v>100000</v>
       </c>
       <c r="F31" s="4">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G31" s="4">
-        <v>30000</v>
+        <v>4371</v>
       </c>
       <c r="H31" s="4">
-        <v>1583471</v>
+        <v>1015786</v>
       </c>
       <c r="I31" s="4">
-        <v>350075</v>
+        <v>139257</v>
       </c>
       <c r="J31" s="4">
         <v>0</v>
       </c>
       <c r="K31" s="4">
-        <v>547105</v>
+        <v>148717</v>
       </c>
       <c r="L31" s="4">
-        <v>2548754</v>
+        <v>1410211</v>
       </c>
       <c r="M31" s="3">
-        <v>429994</v>
+        <v>557700</v>
       </c>
       <c r="N31" s="4">
-        <v>533695</v>
+        <v>23638</v>
       </c>
       <c r="O31" s="4">
-        <v>30957</v>
+        <v>0</v>
       </c>
       <c r="P31" s="3">
-        <v>10200990</v>
+        <v>5218704</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2300,49 +2312,49 @@
         <v>46</v>
       </c>
       <c r="B32" s="3">
-        <v>172101</v>
+        <v>345544</v>
       </c>
       <c r="C32" s="4">
-        <v>53234</v>
+        <v>442001</v>
       </c>
       <c r="D32" s="4">
-        <v>56522</v>
+        <v>232750</v>
       </c>
       <c r="E32" s="4">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="F32" s="4">
-        <v>1500</v>
+        <v>1350</v>
       </c>
       <c r="G32" s="4">
-        <v>200</v>
+        <v>33300</v>
       </c>
       <c r="H32" s="4">
-        <v>135254</v>
+        <v>549650</v>
       </c>
       <c r="I32" s="4">
-        <v>8625</v>
+        <v>124000</v>
       </c>
       <c r="J32" s="4">
-        <v>0</v>
+        <v>27600</v>
       </c>
       <c r="K32" s="4">
-        <v>28240</v>
+        <v>63695</v>
       </c>
       <c r="L32" s="4">
-        <v>94100</v>
+        <v>95000</v>
       </c>
       <c r="M32" s="3">
-        <v>22936</v>
+        <v>195116</v>
       </c>
       <c r="N32" s="4">
-        <v>0</v>
+        <v>196168</v>
       </c>
       <c r="O32" s="4">
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>572712</v>
+        <v>2366174</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2350,49 +2362,49 @@
         <v>47</v>
       </c>
       <c r="B33" s="3">
-        <v>68980</v>
+        <v>1105702</v>
       </c>
       <c r="C33" s="4">
-        <v>47018</v>
+        <v>1222714</v>
       </c>
       <c r="D33" s="4">
-        <v>9714</v>
+        <v>851916</v>
       </c>
       <c r="E33" s="4">
-        <v>19500</v>
+        <v>125000</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
       </c>
       <c r="G33" s="4">
-        <v>0</v>
+        <v>143271</v>
       </c>
       <c r="H33" s="4">
-        <v>36426</v>
+        <v>2154100</v>
       </c>
       <c r="I33" s="4">
-        <v>32742</v>
+        <v>230320</v>
       </c>
       <c r="J33" s="4">
         <v>0</v>
       </c>
       <c r="K33" s="4">
-        <v>1000</v>
+        <v>353382</v>
       </c>
       <c r="L33" s="4">
-        <v>9314</v>
+        <v>2223274</v>
       </c>
       <c r="M33" s="3">
-        <v>450</v>
+        <v>611018</v>
       </c>
       <c r="N33" s="4">
-        <v>34154</v>
+        <v>379426</v>
       </c>
       <c r="O33" s="4">
         <v>0</v>
       </c>
       <c r="P33" s="3">
-        <v>259298</v>
+        <v>9400123</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2400,49 +2412,49 @@
         <v>48</v>
       </c>
       <c r="B34" s="3">
-        <v>612001</v>
+        <v>789260</v>
       </c>
       <c r="C34" s="4">
-        <v>666158</v>
+        <v>1087812</v>
       </c>
       <c r="D34" s="4">
-        <v>330223</v>
+        <v>773800</v>
       </c>
       <c r="E34" s="4">
-        <v>143848</v>
+        <v>147000</v>
       </c>
       <c r="F34" s="4">
-        <v>7000</v>
+        <v>26000</v>
       </c>
       <c r="G34" s="4">
-        <v>8000</v>
+        <v>98200</v>
       </c>
       <c r="H34" s="4">
-        <v>891785</v>
+        <v>1676800</v>
       </c>
       <c r="I34" s="4">
-        <v>254575</v>
+        <v>454600</v>
       </c>
       <c r="J34" s="4">
         <v>0</v>
       </c>
       <c r="K34" s="4">
-        <v>250264</v>
+        <v>408200</v>
       </c>
       <c r="L34" s="4">
-        <v>343507</v>
+        <v>1242850</v>
       </c>
       <c r="M34" s="3">
-        <v>313950</v>
+        <v>519550</v>
       </c>
       <c r="N34" s="4">
-        <v>105837</v>
+        <v>55200</v>
       </c>
       <c r="O34" s="4">
         <v>0</v>
       </c>
       <c r="P34" s="3">
-        <v>3927148</v>
+        <v>7279272</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2450,49 +2462,49 @@
         <v>49</v>
       </c>
       <c r="B35" s="3">
-        <v>356958</v>
+        <v>878314</v>
       </c>
       <c r="C35" s="4">
-        <v>303697</v>
+        <v>2392700</v>
       </c>
       <c r="D35" s="4">
-        <v>72554</v>
+        <v>687925</v>
       </c>
       <c r="E35" s="4">
-        <v>160000</v>
+        <v>188000</v>
       </c>
       <c r="F35" s="4">
         <v>0</v>
       </c>
       <c r="G35" s="4">
-        <v>2662</v>
+        <v>30000</v>
       </c>
       <c r="H35" s="4">
-        <v>362605</v>
+        <v>1583471</v>
       </c>
       <c r="I35" s="4">
-        <v>252267</v>
+        <v>350075</v>
       </c>
       <c r="J35" s="4">
         <v>0</v>
       </c>
       <c r="K35" s="4">
-        <v>45247</v>
+        <v>547105</v>
       </c>
       <c r="L35" s="4">
-        <v>179254</v>
+        <v>2548754</v>
       </c>
       <c r="M35" s="3">
-        <v>253076</v>
+        <v>429994</v>
       </c>
       <c r="N35" s="4">
-        <v>7000</v>
+        <v>533695</v>
       </c>
       <c r="O35" s="4">
-        <v>0</v>
+        <v>30957</v>
       </c>
       <c r="P35" s="3">
-        <v>1995320</v>
+        <v>10200990</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2500,49 +2512,49 @@
         <v>50</v>
       </c>
       <c r="B36" s="3">
-        <v>359706</v>
+        <v>172101</v>
       </c>
       <c r="C36" s="4">
-        <v>217246</v>
+        <v>53234</v>
       </c>
       <c r="D36" s="4">
-        <v>55208</v>
+        <v>56522</v>
       </c>
       <c r="E36" s="4">
         <v>0</v>
       </c>
       <c r="F36" s="4">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G36" s="4">
-        <v>2128</v>
+        <v>200</v>
       </c>
       <c r="H36" s="4">
-        <v>364892</v>
+        <v>135254</v>
       </c>
       <c r="I36" s="4">
-        <v>95836</v>
+        <v>8625</v>
       </c>
       <c r="J36" s="4">
         <v>0</v>
       </c>
       <c r="K36" s="4">
-        <v>82364</v>
+        <v>28240</v>
       </c>
       <c r="L36" s="4">
-        <v>180040</v>
+        <v>94100</v>
       </c>
       <c r="M36" s="3">
-        <v>43040</v>
+        <v>22936</v>
       </c>
       <c r="N36" s="4">
-        <v>41000</v>
+        <v>0</v>
       </c>
       <c r="O36" s="4">
         <v>0</v>
       </c>
       <c r="P36" s="3">
-        <v>1441460</v>
+        <v>572712</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2550,49 +2562,49 @@
         <v>51</v>
       </c>
       <c r="B37" s="3">
-        <v>66232</v>
+        <v>68980</v>
       </c>
       <c r="C37" s="4">
-        <v>82273</v>
+        <v>47018</v>
       </c>
       <c r="D37" s="4">
-        <v>62183</v>
+        <v>9714</v>
       </c>
       <c r="E37" s="4">
-        <v>0</v>
+        <v>19500</v>
       </c>
       <c r="F37" s="4">
         <v>0</v>
       </c>
       <c r="G37" s="4">
-        <v>11417</v>
+        <v>0</v>
       </c>
       <c r="H37" s="4">
-        <v>75403</v>
+        <v>36426</v>
       </c>
       <c r="I37" s="4">
-        <v>44824</v>
+        <v>32742</v>
       </c>
       <c r="J37" s="4">
         <v>0</v>
       </c>
       <c r="K37" s="4">
-        <v>43038</v>
+        <v>1000</v>
       </c>
       <c r="L37" s="4">
-        <v>57659</v>
+        <v>9314</v>
       </c>
       <c r="M37" s="3">
-        <v>72662</v>
+        <v>450</v>
       </c>
       <c r="N37" s="4">
-        <v>0</v>
+        <v>34154</v>
       </c>
       <c r="O37" s="4">
-        <v>3140</v>
+        <v>0</v>
       </c>
       <c r="P37" s="3">
-        <v>518831</v>
+        <v>259298</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2600,49 +2612,49 @@
         <v>52</v>
       </c>
       <c r="B38" s="3">
-        <v>1045106</v>
+        <v>612001</v>
       </c>
       <c r="C38" s="4">
-        <v>794465</v>
+        <v>666158</v>
       </c>
       <c r="D38" s="4">
-        <v>272662</v>
+        <v>330223</v>
       </c>
       <c r="E38" s="4">
-        <v>23075</v>
+        <v>143848</v>
       </c>
       <c r="F38" s="4">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="G38" s="4">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="H38" s="4">
-        <v>993200</v>
+        <v>891785</v>
       </c>
       <c r="I38" s="4">
-        <v>196000</v>
+        <v>254575</v>
       </c>
       <c r="J38" s="4">
         <v>0</v>
       </c>
       <c r="K38" s="4">
-        <v>672704</v>
+        <v>250264</v>
       </c>
       <c r="L38" s="4">
-        <v>535090</v>
+        <v>343507</v>
       </c>
       <c r="M38" s="3">
-        <v>331601</v>
+        <v>313950</v>
       </c>
       <c r="N38" s="4">
-        <v>220000</v>
+        <v>105837</v>
       </c>
       <c r="O38" s="4">
-        <v>6585</v>
+        <v>0</v>
       </c>
       <c r="P38" s="3">
-        <v>5105488</v>
+        <v>3927148</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2650,49 +2662,49 @@
         <v>53</v>
       </c>
       <c r="B39" s="3">
-        <v>327522</v>
+        <v>356958</v>
       </c>
       <c r="C39" s="4">
-        <v>189741</v>
+        <v>303697</v>
       </c>
       <c r="D39" s="4">
-        <v>50200</v>
+        <v>72554</v>
       </c>
       <c r="E39" s="4">
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="F39" s="4">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G39" s="4">
-        <v>1700</v>
+        <v>2662</v>
       </c>
       <c r="H39" s="4">
-        <v>332709</v>
+        <v>362605</v>
       </c>
       <c r="I39" s="4">
-        <v>89109</v>
+        <v>252267</v>
       </c>
       <c r="J39" s="4">
         <v>0</v>
       </c>
       <c r="K39" s="4">
-        <v>89979</v>
+        <v>45247</v>
       </c>
       <c r="L39" s="4">
-        <v>164545</v>
+        <v>179254</v>
       </c>
       <c r="M39" s="3">
-        <v>137833</v>
+        <v>253076</v>
       </c>
       <c r="N39" s="4">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="O39" s="4">
         <v>0</v>
       </c>
       <c r="P39" s="3">
-        <v>1384838</v>
+        <v>1995320</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2700,49 +2712,49 @@
         <v>54</v>
       </c>
       <c r="B40" s="3">
-        <v>288263</v>
+        <v>359706</v>
       </c>
       <c r="C40" s="4">
-        <v>228161</v>
+        <v>217246</v>
       </c>
       <c r="D40" s="4">
-        <v>166471</v>
+        <v>55208</v>
       </c>
       <c r="E40" s="4">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="F40" s="4">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="G40" s="4">
-        <v>32630</v>
+        <v>2128</v>
       </c>
       <c r="H40" s="4">
-        <v>203590</v>
+        <v>364892</v>
       </c>
       <c r="I40" s="4">
-        <v>54000</v>
+        <v>95836</v>
       </c>
       <c r="J40" s="4">
         <v>0</v>
       </c>
       <c r="K40" s="4">
-        <v>29810</v>
+        <v>82364</v>
       </c>
       <c r="L40" s="4">
-        <v>336678</v>
+        <v>180040</v>
       </c>
       <c r="M40" s="3">
-        <v>93960</v>
+        <v>43040</v>
       </c>
       <c r="N40" s="4">
-        <v>0</v>
+        <v>41000</v>
       </c>
       <c r="O40" s="4">
-        <v>6934</v>
+        <v>0</v>
       </c>
       <c r="P40" s="3">
-        <v>1491547</v>
+        <v>1441460</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2750,13 +2762,13 @@
         <v>55</v>
       </c>
       <c r="B41" s="3">
-        <v>175430</v>
+        <v>66232</v>
       </c>
       <c r="C41" s="4">
-        <v>214792</v>
+        <v>82273</v>
       </c>
       <c r="D41" s="4">
-        <v>100795</v>
+        <v>62183</v>
       </c>
       <c r="E41" s="4">
         <v>0</v>
@@ -2765,34 +2777,34 @@
         <v>0</v>
       </c>
       <c r="G41" s="4">
-        <v>1500</v>
+        <v>11417</v>
       </c>
       <c r="H41" s="4">
-        <v>204058</v>
+        <v>75403</v>
       </c>
       <c r="I41" s="4">
-        <v>95495</v>
+        <v>44824</v>
       </c>
       <c r="J41" s="4">
         <v>0</v>
       </c>
       <c r="K41" s="4">
-        <v>34465</v>
+        <v>43038</v>
       </c>
       <c r="L41" s="4">
-        <v>55000</v>
+        <v>57659</v>
       </c>
       <c r="M41" s="3">
-        <v>160590</v>
+        <v>72662</v>
       </c>
       <c r="N41" s="4">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="O41" s="4">
-        <v>49633</v>
+        <v>3140</v>
       </c>
       <c r="P41" s="3">
-        <v>1131758</v>
+        <v>518831</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2800,49 +2812,49 @@
         <v>56</v>
       </c>
       <c r="B42" s="3">
-        <v>252930</v>
+        <v>1045106</v>
       </c>
       <c r="C42" s="4">
-        <v>120986</v>
+        <v>794465</v>
       </c>
       <c r="D42" s="4">
-        <v>93840</v>
+        <v>272662</v>
       </c>
       <c r="E42" s="4">
-        <v>0</v>
+        <v>23075</v>
       </c>
       <c r="F42" s="4">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="G42" s="4">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="H42" s="4">
-        <v>356898</v>
+        <v>993200</v>
       </c>
       <c r="I42" s="4">
-        <v>81586</v>
+        <v>196000</v>
       </c>
       <c r="J42" s="4">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="K42" s="4">
-        <v>69647</v>
+        <v>672704</v>
       </c>
       <c r="L42" s="4">
-        <v>63737</v>
+        <v>535090</v>
       </c>
       <c r="M42" s="3">
-        <v>1500</v>
+        <v>331601</v>
       </c>
       <c r="N42" s="4">
-        <v>0</v>
+        <v>220000</v>
       </c>
       <c r="O42" s="4">
-        <v>0</v>
+        <v>6585</v>
       </c>
       <c r="P42" s="3">
-        <v>1080124</v>
+        <v>5105488</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2850,49 +2862,49 @@
         <v>57</v>
       </c>
       <c r="B43" s="3">
-        <v>92952</v>
+        <v>327522</v>
       </c>
       <c r="C43" s="4">
-        <v>55680</v>
+        <v>189741</v>
       </c>
       <c r="D43" s="4">
-        <v>88400</v>
+        <v>50200</v>
       </c>
       <c r="E43" s="4">
         <v>0</v>
       </c>
       <c r="F43" s="4">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G43" s="4">
-        <v>4800</v>
+        <v>1700</v>
       </c>
       <c r="H43" s="4">
-        <v>38700</v>
+        <v>332709</v>
       </c>
       <c r="I43" s="4">
-        <v>42480</v>
+        <v>89109</v>
       </c>
       <c r="J43" s="4">
         <v>0</v>
       </c>
       <c r="K43" s="4">
-        <v>4541</v>
+        <v>89979</v>
       </c>
       <c r="L43" s="4">
-        <v>10200</v>
+        <v>164545</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>137833</v>
       </c>
       <c r="N43" s="4">
-        <v>20600</v>
+        <v>0</v>
       </c>
       <c r="O43" s="4">
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>358353</v>
+        <v>1384838</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2900,49 +2912,49 @@
         <v>58</v>
       </c>
       <c r="B44" s="3">
-        <v>749017</v>
+        <v>288263</v>
       </c>
       <c r="C44" s="4">
-        <v>467442</v>
+        <v>228161</v>
       </c>
       <c r="D44" s="4">
-        <v>178880</v>
+        <v>166471</v>
       </c>
       <c r="E44" s="4">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="F44" s="4">
-        <v>20200</v>
+        <v>1050</v>
       </c>
       <c r="G44" s="4">
-        <v>9000</v>
+        <v>32630</v>
       </c>
       <c r="H44" s="4">
-        <v>558164</v>
+        <v>203590</v>
       </c>
       <c r="I44" s="4">
-        <v>147578</v>
+        <v>54000</v>
       </c>
       <c r="J44" s="4">
         <v>0</v>
       </c>
       <c r="K44" s="4">
-        <v>296932</v>
+        <v>29810</v>
       </c>
       <c r="L44" s="4">
-        <v>773740</v>
+        <v>336678</v>
       </c>
       <c r="M44" s="3">
-        <v>459459</v>
+        <v>93960</v>
       </c>
       <c r="N44" s="4">
-        <v>12255</v>
+        <v>0</v>
       </c>
       <c r="O44" s="4">
-        <v>55970</v>
+        <v>6934</v>
       </c>
       <c r="P44" s="3">
-        <v>3728637</v>
+        <v>1491547</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2950,49 +2962,49 @@
         <v>59</v>
       </c>
       <c r="B45" s="3">
-        <v>98925</v>
+        <v>175430</v>
       </c>
       <c r="C45" s="4">
-        <v>113521</v>
+        <v>214792</v>
       </c>
       <c r="D45" s="4">
-        <v>92000</v>
+        <v>100795</v>
       </c>
       <c r="E45" s="4">
         <v>0</v>
       </c>
       <c r="F45" s="4">
+        <v>0</v>
+      </c>
+      <c r="G45" s="4">
         <v>1500</v>
       </c>
-      <c r="G45" s="4">
-        <v>2400</v>
-      </c>
       <c r="H45" s="4">
-        <v>214836</v>
+        <v>204058</v>
       </c>
       <c r="I45" s="4">
-        <v>46000</v>
+        <v>95495</v>
       </c>
       <c r="J45" s="4">
         <v>0</v>
       </c>
       <c r="K45" s="4">
-        <v>32155</v>
+        <v>34465</v>
       </c>
       <c r="L45" s="4">
-        <v>82800</v>
+        <v>55000</v>
       </c>
       <c r="M45" s="3">
-        <v>51079</v>
+        <v>160590</v>
       </c>
       <c r="N45" s="4">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="O45" s="4">
-        <v>0</v>
+        <v>49633</v>
       </c>
       <c r="P45" s="3">
-        <v>735216</v>
+        <v>1131758</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3000,40 +3012,40 @@
         <v>60</v>
       </c>
       <c r="B46" s="3">
-        <v>344887</v>
+        <v>252930</v>
       </c>
       <c r="C46" s="4">
-        <v>248344</v>
+        <v>120986</v>
       </c>
       <c r="D46" s="4">
-        <v>97000</v>
+        <v>93840</v>
       </c>
       <c r="E46" s="4">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="F46" s="4">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="G46" s="4">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="H46" s="4">
-        <v>464500</v>
+        <v>356898</v>
       </c>
       <c r="I46" s="4">
-        <v>123088</v>
+        <v>81586</v>
       </c>
       <c r="J46" s="4">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="K46" s="4">
-        <v>88395</v>
+        <v>69647</v>
       </c>
       <c r="L46" s="4">
-        <v>35500</v>
+        <v>63737</v>
       </c>
       <c r="M46" s="3">
-        <v>129482</v>
+        <v>1500</v>
       </c>
       <c r="N46" s="4">
         <v>0</v>
@@ -3042,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>1585196</v>
+        <v>1080124</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3050,49 +3062,49 @@
         <v>61</v>
       </c>
       <c r="B47" s="3">
-        <v>401093</v>
+        <v>92952</v>
       </c>
       <c r="C47" s="4">
-        <v>134481</v>
+        <v>55680</v>
       </c>
       <c r="D47" s="4">
-        <v>167440</v>
+        <v>88400</v>
       </c>
       <c r="E47" s="4">
         <v>0</v>
       </c>
       <c r="F47" s="4">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="G47" s="4">
-        <v>3700</v>
+        <v>4800</v>
       </c>
       <c r="H47" s="4">
-        <v>362120</v>
+        <v>38700</v>
       </c>
       <c r="I47" s="4">
-        <v>100040</v>
+        <v>42480</v>
       </c>
       <c r="J47" s="4">
         <v>0</v>
       </c>
       <c r="K47" s="4">
-        <v>26568</v>
+        <v>4541</v>
       </c>
       <c r="L47" s="4">
-        <v>275182</v>
+        <v>10200</v>
       </c>
       <c r="M47" s="3">
-        <v>90160</v>
+        <v>0</v>
       </c>
       <c r="N47" s="4">
-        <v>8550</v>
+        <v>20600</v>
       </c>
       <c r="O47" s="4">
         <v>0</v>
       </c>
       <c r="P47" s="3">
-        <v>1575334</v>
+        <v>358353</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3100,49 +3112,49 @@
         <v>62</v>
       </c>
       <c r="B48" s="3">
-        <v>256400</v>
+        <v>749017</v>
       </c>
       <c r="C48" s="4">
-        <v>210228</v>
+        <v>467442</v>
       </c>
       <c r="D48" s="4">
-        <v>78600</v>
+        <v>178880</v>
       </c>
       <c r="E48" s="4">
         <v>0</v>
       </c>
       <c r="F48" s="4">
-        <v>2000</v>
+        <v>20200</v>
       </c>
       <c r="G48" s="4">
-        <v>1200</v>
+        <v>9000</v>
       </c>
       <c r="H48" s="4">
-        <v>258130</v>
+        <v>558164</v>
       </c>
       <c r="I48" s="4">
-        <v>84750</v>
+        <v>147578</v>
       </c>
       <c r="J48" s="4">
         <v>0</v>
       </c>
       <c r="K48" s="4">
-        <v>50317</v>
+        <v>296932</v>
       </c>
       <c r="L48" s="4">
-        <v>186601</v>
+        <v>773740</v>
       </c>
       <c r="M48" s="3">
-        <v>70403</v>
+        <v>459459</v>
       </c>
       <c r="N48" s="4">
-        <v>17000</v>
+        <v>12255</v>
       </c>
       <c r="O48" s="4">
-        <v>33274</v>
+        <v>55970</v>
       </c>
       <c r="P48" s="3">
-        <v>1248903</v>
+        <v>3728637</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3150,49 +3162,49 @@
         <v>63</v>
       </c>
       <c r="B49" s="3">
-        <v>367062</v>
+        <v>98925</v>
       </c>
       <c r="C49" s="4">
-        <v>174676</v>
+        <v>113521</v>
       </c>
       <c r="D49" s="4">
-        <v>180912</v>
+        <v>92000</v>
       </c>
       <c r="E49" s="4">
-        <v>36791</v>
+        <v>0</v>
       </c>
       <c r="F49" s="4">
-        <v>4465</v>
+        <v>1500</v>
       </c>
       <c r="G49" s="4">
-        <v>6900</v>
+        <v>2400</v>
       </c>
       <c r="H49" s="4">
-        <v>197630</v>
+        <v>214836</v>
       </c>
       <c r="I49" s="4">
-        <v>48295</v>
+        <v>46000</v>
       </c>
       <c r="J49" s="4">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="K49" s="4">
-        <v>75139</v>
+        <v>32155</v>
       </c>
       <c r="L49" s="4">
-        <v>135107</v>
+        <v>82800</v>
       </c>
       <c r="M49" s="3">
-        <v>64482</v>
+        <v>51079</v>
       </c>
       <c r="N49" s="4">
-        <v>39412</v>
+        <v>0</v>
       </c>
       <c r="O49" s="4">
         <v>0</v>
       </c>
       <c r="P49" s="3">
-        <v>1333121</v>
+        <v>735216</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3200,49 +3212,49 @@
         <v>64</v>
       </c>
       <c r="B50" s="3">
-        <v>261882</v>
+        <v>344887</v>
       </c>
       <c r="C50" s="4">
-        <v>128063</v>
+        <v>248344</v>
       </c>
       <c r="D50" s="4">
-        <v>99568</v>
+        <v>97000</v>
       </c>
       <c r="E50" s="4">
-        <v>12065</v>
+        <v>30000</v>
       </c>
       <c r="F50" s="4">
-        <v>4500</v>
+        <v>20000</v>
       </c>
       <c r="G50" s="4">
-        <v>11125</v>
+        <v>4000</v>
       </c>
       <c r="H50" s="4">
-        <v>146892</v>
+        <v>464500</v>
       </c>
       <c r="I50" s="4">
-        <v>47893</v>
+        <v>123088</v>
       </c>
       <c r="J50" s="4">
         <v>0</v>
       </c>
       <c r="K50" s="4">
-        <v>29450</v>
+        <v>88395</v>
       </c>
       <c r="L50" s="4">
-        <v>30300</v>
+        <v>35500</v>
       </c>
       <c r="M50" s="3">
-        <v>60657</v>
+        <v>129482</v>
       </c>
       <c r="N50" s="4">
-        <v>38000</v>
+        <v>0</v>
       </c>
       <c r="O50" s="4">
         <v>0</v>
       </c>
       <c r="P50" s="3">
-        <v>870395</v>
+        <v>1585196</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3250,49 +3262,49 @@
         <v>65</v>
       </c>
       <c r="B51" s="3">
-        <v>338910</v>
+        <v>401093</v>
       </c>
       <c r="C51" s="4">
-        <v>305679</v>
+        <v>134481</v>
       </c>
       <c r="D51" s="4">
-        <v>89162</v>
+        <v>167440</v>
       </c>
       <c r="E51" s="4">
-        <v>61997</v>
+        <v>0</v>
       </c>
       <c r="F51" s="4">
-        <v>3517</v>
+        <v>6000</v>
       </c>
       <c r="G51" s="4">
-        <v>2450</v>
+        <v>3700</v>
       </c>
       <c r="H51" s="4">
-        <v>446374</v>
+        <v>362120</v>
       </c>
       <c r="I51" s="4">
-        <v>126359</v>
+        <v>100040</v>
       </c>
       <c r="J51" s="4">
         <v>0</v>
       </c>
       <c r="K51" s="4">
-        <v>55640</v>
+        <v>26568</v>
       </c>
       <c r="L51" s="4">
-        <v>34780</v>
+        <v>275182</v>
       </c>
       <c r="M51" s="3">
-        <v>36286</v>
+        <v>90160</v>
       </c>
       <c r="N51" s="4">
-        <v>81131</v>
+        <v>8550</v>
       </c>
       <c r="O51" s="4">
         <v>0</v>
       </c>
       <c r="P51" s="3">
-        <v>1582285</v>
+        <v>1575334</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3300,49 +3312,49 @@
         <v>66</v>
       </c>
       <c r="B52" s="3">
-        <v>154937</v>
+        <v>256400</v>
       </c>
       <c r="C52" s="4">
-        <v>84601</v>
+        <v>210228</v>
       </c>
       <c r="D52" s="4">
-        <v>131025</v>
+        <v>78600</v>
       </c>
       <c r="E52" s="4">
-        <v>53184</v>
+        <v>0</v>
       </c>
       <c r="F52" s="4">
-        <v>4100</v>
+        <v>2000</v>
       </c>
       <c r="G52" s="4">
-        <v>6680</v>
+        <v>1200</v>
       </c>
       <c r="H52" s="4">
-        <v>238878</v>
+        <v>258130</v>
       </c>
       <c r="I52" s="4">
-        <v>45500</v>
+        <v>84750</v>
       </c>
       <c r="J52" s="4">
         <v>0</v>
       </c>
       <c r="K52" s="4">
-        <v>18404</v>
+        <v>50317</v>
       </c>
       <c r="L52" s="4">
-        <v>21309</v>
+        <v>186601</v>
       </c>
       <c r="M52" s="3">
-        <v>159114</v>
+        <v>70403</v>
       </c>
       <c r="N52" s="4">
-        <v>1493</v>
+        <v>17000</v>
       </c>
       <c r="O52" s="4">
-        <v>11447</v>
+        <v>33274</v>
       </c>
       <c r="P52" s="3">
-        <v>930672</v>
+        <v>1248903</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3350,49 +3362,49 @@
         <v>67</v>
       </c>
       <c r="B53" s="3">
-        <v>181299</v>
+        <v>367062</v>
       </c>
       <c r="C53" s="4">
-        <v>101044</v>
+        <v>174676</v>
       </c>
       <c r="D53" s="4">
-        <v>123011</v>
+        <v>180912</v>
       </c>
       <c r="E53" s="4">
-        <v>0</v>
+        <v>36791</v>
       </c>
       <c r="F53" s="4">
-        <v>6000</v>
+        <v>4465</v>
       </c>
       <c r="G53" s="4">
-        <v>100</v>
+        <v>6900</v>
       </c>
       <c r="H53" s="4">
-        <v>331396</v>
+        <v>197630</v>
       </c>
       <c r="I53" s="4">
-        <v>60500</v>
+        <v>48295</v>
       </c>
       <c r="J53" s="4">
-        <v>5600</v>
+        <v>2250</v>
       </c>
       <c r="K53" s="4">
-        <v>50532</v>
+        <v>75139</v>
       </c>
       <c r="L53" s="4">
-        <v>67281</v>
+        <v>135107</v>
       </c>
       <c r="M53" s="3">
-        <v>107689</v>
+        <v>64482</v>
       </c>
       <c r="N53" s="4">
-        <v>46976</v>
+        <v>39412</v>
       </c>
       <c r="O53" s="4">
         <v>0</v>
       </c>
       <c r="P53" s="3">
-        <v>1081428</v>
+        <v>1333121</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3400,49 +3412,49 @@
         <v>68</v>
       </c>
       <c r="B54" s="3">
-        <v>502605</v>
+        <v>261882</v>
       </c>
       <c r="C54" s="4">
-        <v>667363</v>
+        <v>128063</v>
       </c>
       <c r="D54" s="4">
-        <v>131950</v>
+        <v>99568</v>
       </c>
       <c r="E54" s="4">
-        <v>0</v>
+        <v>12065</v>
       </c>
       <c r="F54" s="4">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="G54" s="4">
-        <v>15600</v>
+        <v>11125</v>
       </c>
       <c r="H54" s="4">
-        <v>478750</v>
+        <v>146892</v>
       </c>
       <c r="I54" s="4">
-        <v>428900</v>
+        <v>47893</v>
       </c>
       <c r="J54" s="4">
-        <v>33500</v>
+        <v>0</v>
       </c>
       <c r="K54" s="4">
-        <v>89400</v>
+        <v>29450</v>
       </c>
       <c r="L54" s="4">
-        <v>467844</v>
+        <v>30300</v>
       </c>
       <c r="M54" s="3">
-        <v>125111</v>
+        <v>60657</v>
       </c>
       <c r="N54" s="4">
-        <v>39796</v>
+        <v>38000</v>
       </c>
       <c r="O54" s="4">
         <v>0</v>
       </c>
       <c r="P54" s="3">
-        <v>2986819</v>
+        <v>870395</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3450,49 +3462,49 @@
         <v>69</v>
       </c>
       <c r="B55" s="3">
-        <v>326664</v>
+        <v>338910</v>
       </c>
       <c r="C55" s="4">
-        <v>132712</v>
+        <v>305679</v>
       </c>
       <c r="D55" s="4">
-        <v>114796</v>
+        <v>89162</v>
       </c>
       <c r="E55" s="4">
-        <v>0</v>
+        <v>61997</v>
       </c>
       <c r="F55" s="4">
-        <v>0</v>
+        <v>3517</v>
       </c>
       <c r="G55" s="4">
-        <v>0</v>
+        <v>2450</v>
       </c>
       <c r="H55" s="4">
-        <v>295533</v>
+        <v>446374</v>
       </c>
       <c r="I55" s="4">
-        <v>58800</v>
+        <v>126359</v>
       </c>
       <c r="J55" s="4">
         <v>0</v>
       </c>
       <c r="K55" s="4">
-        <v>56280</v>
+        <v>55640</v>
       </c>
       <c r="L55" s="4">
-        <v>106924</v>
+        <v>34780</v>
       </c>
       <c r="M55" s="3">
-        <v>103720</v>
+        <v>36286</v>
       </c>
       <c r="N55" s="4">
-        <v>0</v>
+        <v>81131</v>
       </c>
       <c r="O55" s="4">
         <v>0</v>
       </c>
       <c r="P55" s="3">
-        <v>1195429</v>
+        <v>1582285</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3500,49 +3512,49 @@
         <v>70</v>
       </c>
       <c r="B56" s="3">
-        <v>67255</v>
+        <v>154937</v>
       </c>
       <c r="C56" s="4">
-        <v>83609</v>
+        <v>84601</v>
       </c>
       <c r="D56" s="4">
-        <v>32690</v>
+        <v>131025</v>
       </c>
       <c r="E56" s="4">
-        <v>0</v>
+        <v>53184</v>
       </c>
       <c r="F56" s="4">
-        <v>1000</v>
+        <v>4100</v>
       </c>
       <c r="G56" s="4">
-        <v>221</v>
+        <v>6680</v>
       </c>
       <c r="H56" s="4">
-        <v>67514</v>
+        <v>238878</v>
       </c>
       <c r="I56" s="4">
-        <v>29742</v>
+        <v>45500</v>
       </c>
       <c r="J56" s="4">
-        <v>26160</v>
+        <v>0</v>
       </c>
       <c r="K56" s="4">
-        <v>51684</v>
+        <v>18404</v>
       </c>
       <c r="L56" s="4">
-        <v>7708</v>
+        <v>21309</v>
       </c>
       <c r="M56" s="3">
-        <v>22372</v>
+        <v>159114</v>
       </c>
       <c r="N56" s="4">
-        <v>0</v>
+        <v>1493</v>
       </c>
       <c r="O56" s="4">
-        <v>0</v>
+        <v>11447</v>
       </c>
       <c r="P56" s="3">
-        <v>389955</v>
+        <v>930672</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3550,49 +3562,49 @@
         <v>71</v>
       </c>
       <c r="B57" s="3">
-        <v>295875</v>
+        <v>181299</v>
       </c>
       <c r="C57" s="4">
-        <v>222096</v>
+        <v>101044</v>
       </c>
       <c r="D57" s="4">
-        <v>139220</v>
+        <v>123011</v>
       </c>
       <c r="E57" s="4">
-        <v>8280</v>
+        <v>0</v>
       </c>
       <c r="F57" s="4">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="G57" s="4">
-        <v>3800</v>
+        <v>100</v>
       </c>
       <c r="H57" s="4">
-        <v>600558</v>
+        <v>331396</v>
       </c>
       <c r="I57" s="4">
-        <v>91486</v>
+        <v>60500</v>
       </c>
       <c r="J57" s="4">
-        <v>18000</v>
+        <v>5600</v>
       </c>
       <c r="K57" s="4">
-        <v>83873</v>
+        <v>50532</v>
       </c>
       <c r="L57" s="4">
-        <v>286820</v>
+        <v>67281</v>
       </c>
       <c r="M57" s="3">
-        <v>57912</v>
+        <v>107689</v>
       </c>
       <c r="N57" s="4">
-        <v>3000</v>
+        <v>46976</v>
       </c>
       <c r="O57" s="4">
         <v>0</v>
       </c>
       <c r="P57" s="3">
-        <v>1815920</v>
+        <v>1081428</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3600,49 +3612,49 @@
         <v>72</v>
       </c>
       <c r="B58" s="3">
-        <v>224360</v>
+        <v>502605</v>
       </c>
       <c r="C58" s="4">
-        <v>145017</v>
+        <v>667363</v>
       </c>
       <c r="D58" s="4">
-        <v>66450</v>
+        <v>131950</v>
       </c>
       <c r="E58" s="4">
         <v>0</v>
       </c>
       <c r="F58" s="4">
-        <v>4165</v>
+        <v>6000</v>
       </c>
       <c r="G58" s="4">
-        <v>0</v>
+        <v>15600</v>
       </c>
       <c r="H58" s="4">
-        <v>154520</v>
+        <v>478750</v>
       </c>
       <c r="I58" s="4">
-        <v>51801</v>
+        <v>428900</v>
       </c>
       <c r="J58" s="4">
-        <v>10000</v>
+        <v>33500</v>
       </c>
       <c r="K58" s="4">
-        <v>45472</v>
+        <v>89400</v>
       </c>
       <c r="L58" s="4">
-        <v>42500</v>
+        <v>467844</v>
       </c>
       <c r="M58" s="3">
-        <v>62528</v>
+        <v>125111</v>
       </c>
       <c r="N58" s="4">
-        <v>0</v>
+        <v>39796</v>
       </c>
       <c r="O58" s="4">
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>806813</v>
+        <v>2986819</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3650,40 +3662,40 @@
         <v>73</v>
       </c>
       <c r="B59" s="3">
-        <v>294961</v>
+        <v>326664</v>
       </c>
       <c r="C59" s="4">
-        <v>108518</v>
+        <v>132712</v>
       </c>
       <c r="D59" s="4">
-        <v>24468</v>
+        <v>114796</v>
       </c>
       <c r="E59" s="4">
         <v>0</v>
       </c>
       <c r="F59" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G59" s="4">
-        <v>5956</v>
+        <v>0</v>
       </c>
       <c r="H59" s="4">
-        <v>167270</v>
+        <v>295533</v>
       </c>
       <c r="I59" s="4">
-        <v>52779</v>
+        <v>58800</v>
       </c>
       <c r="J59" s="4">
         <v>0</v>
       </c>
       <c r="K59" s="4">
-        <v>23462</v>
+        <v>56280</v>
       </c>
       <c r="L59" s="4">
-        <v>10417</v>
+        <v>106924</v>
       </c>
       <c r="M59" s="3">
-        <v>25842</v>
+        <v>103720</v>
       </c>
       <c r="N59" s="4">
         <v>0</v>
@@ -3692,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="3">
-        <v>714673</v>
+        <v>1195429</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -3700,40 +3712,40 @@
         <v>74</v>
       </c>
       <c r="B60" s="3">
-        <v>169031</v>
+        <v>67255</v>
       </c>
       <c r="C60" s="4">
-        <v>80882</v>
+        <v>83609</v>
       </c>
       <c r="D60" s="4">
-        <v>40601</v>
+        <v>32690</v>
       </c>
       <c r="E60" s="4">
         <v>0</v>
       </c>
       <c r="F60" s="4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G60" s="4">
-        <v>629</v>
+        <v>221</v>
       </c>
       <c r="H60" s="4">
-        <v>96428</v>
+        <v>67514</v>
       </c>
       <c r="I60" s="4">
-        <v>53656</v>
+        <v>29742</v>
       </c>
       <c r="J60" s="4">
-        <v>0</v>
+        <v>26160</v>
       </c>
       <c r="K60" s="4">
-        <v>16016</v>
+        <v>51684</v>
       </c>
       <c r="L60" s="4">
-        <v>27926</v>
+        <v>7708</v>
       </c>
       <c r="M60" s="3">
-        <v>17000</v>
+        <v>22372</v>
       </c>
       <c r="N60" s="4">
         <v>0</v>
@@ -3742,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="3">
-        <v>502169</v>
+        <v>389955</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -3750,49 +3762,49 @@
         <v>75</v>
       </c>
       <c r="B61" s="3">
-        <v>391194</v>
+        <v>295875</v>
       </c>
       <c r="C61" s="4">
-        <v>257716</v>
+        <v>222096</v>
       </c>
       <c r="D61" s="4">
-        <v>79000</v>
+        <v>139220</v>
       </c>
       <c r="E61" s="4">
-        <v>30000</v>
+        <v>8280</v>
       </c>
       <c r="F61" s="4">
         <v>5000</v>
       </c>
       <c r="G61" s="4">
-        <v>8500</v>
+        <v>3800</v>
       </c>
       <c r="H61" s="4">
-        <v>316700</v>
+        <v>600558</v>
       </c>
       <c r="I61" s="4">
-        <v>82000</v>
+        <v>91486</v>
       </c>
       <c r="J61" s="4">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="K61" s="4">
-        <v>46000</v>
+        <v>83873</v>
       </c>
       <c r="L61" s="4">
-        <v>106500</v>
+        <v>286820</v>
       </c>
       <c r="M61" s="3">
-        <v>22221</v>
+        <v>57912</v>
       </c>
       <c r="N61" s="4">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="O61" s="4">
-        <v>63700</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>1415531</v>
+        <v>1815920</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -3800,49 +3812,49 @@
         <v>76</v>
       </c>
       <c r="B62" s="3">
-        <v>67373</v>
+        <v>224360</v>
       </c>
       <c r="C62" s="4">
-        <v>43546</v>
+        <v>145017</v>
       </c>
       <c r="D62" s="4">
-        <v>89928</v>
+        <v>66450</v>
       </c>
       <c r="E62" s="4">
         <v>0</v>
       </c>
       <c r="F62" s="4">
-        <v>500</v>
+        <v>4165</v>
       </c>
       <c r="G62" s="4">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="H62" s="4">
-        <v>33561</v>
+        <v>154520</v>
       </c>
       <c r="I62" s="4">
-        <v>18760</v>
+        <v>51801</v>
       </c>
       <c r="J62" s="4">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="K62" s="4">
-        <v>0</v>
+        <v>45472</v>
       </c>
       <c r="L62" s="4">
-        <v>31151</v>
+        <v>42500</v>
       </c>
       <c r="M62" s="3">
-        <v>17821</v>
+        <v>62528</v>
       </c>
       <c r="N62" s="4">
-        <v>38473</v>
+        <v>0</v>
       </c>
       <c r="O62" s="4">
-        <v>4130</v>
+        <v>0</v>
       </c>
       <c r="P62" s="3">
-        <v>347943</v>
+        <v>806813</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -3850,49 +3862,49 @@
         <v>77</v>
       </c>
       <c r="B63" s="3">
-        <v>1066640</v>
+        <v>294961</v>
       </c>
       <c r="C63" s="4">
-        <v>828284</v>
+        <v>108518</v>
       </c>
       <c r="D63" s="4">
-        <v>316706</v>
+        <v>24468</v>
       </c>
       <c r="E63" s="4">
-        <v>140362</v>
+        <v>0</v>
       </c>
       <c r="F63" s="4">
-        <v>5950</v>
+        <v>1000</v>
       </c>
       <c r="G63" s="4">
-        <v>11061</v>
+        <v>5956</v>
       </c>
       <c r="H63" s="4">
-        <v>1568682</v>
+        <v>167270</v>
       </c>
       <c r="I63" s="4">
-        <v>241943</v>
+        <v>52779</v>
       </c>
       <c r="J63" s="4">
         <v>0</v>
       </c>
       <c r="K63" s="4">
-        <v>194231</v>
+        <v>23462</v>
       </c>
       <c r="L63" s="4">
-        <v>1834539</v>
+        <v>10417</v>
       </c>
       <c r="M63" s="3">
-        <v>190626</v>
+        <v>25842</v>
       </c>
       <c r="N63" s="4">
-        <v>614000</v>
+        <v>0</v>
       </c>
       <c r="O63" s="4">
         <v>0</v>
       </c>
       <c r="P63" s="3">
-        <v>7013024</v>
+        <v>714673</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -3900,40 +3912,40 @@
         <v>78</v>
       </c>
       <c r="B64" s="3">
-        <v>51807</v>
+        <v>169031</v>
       </c>
       <c r="C64" s="4">
-        <v>29500</v>
+        <v>80882</v>
       </c>
       <c r="D64" s="4">
-        <v>35082</v>
+        <v>40601</v>
       </c>
       <c r="E64" s="4">
         <v>0</v>
       </c>
       <c r="F64" s="4">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="G64" s="4">
-        <v>2300</v>
+        <v>629</v>
       </c>
       <c r="H64" s="4">
-        <v>70700</v>
+        <v>96428</v>
       </c>
       <c r="I64" s="4">
-        <v>31100</v>
+        <v>53656</v>
       </c>
       <c r="J64" s="4">
         <v>0</v>
       </c>
       <c r="K64" s="4">
-        <v>11788</v>
+        <v>16016</v>
       </c>
       <c r="L64" s="4">
-        <v>32850</v>
+        <v>27926</v>
       </c>
       <c r="M64" s="3">
-        <v>30691</v>
+        <v>17000</v>
       </c>
       <c r="N64" s="4">
         <v>0</v>
@@ -3942,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="P64" s="3">
-        <v>299018</v>
+        <v>502169</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -3950,49 +3962,49 @@
         <v>79</v>
       </c>
       <c r="B65" s="3">
-        <v>435625</v>
+        <v>391194</v>
       </c>
       <c r="C65" s="4">
-        <v>251158</v>
+        <v>257716</v>
       </c>
       <c r="D65" s="4">
-        <v>165000</v>
+        <v>79000</v>
       </c>
       <c r="E65" s="4">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="F65" s="4">
         <v>5000</v>
       </c>
       <c r="G65" s="4">
-        <v>7300</v>
+        <v>8500</v>
       </c>
       <c r="H65" s="4">
-        <v>765993</v>
+        <v>316700</v>
       </c>
       <c r="I65" s="4">
-        <v>201648</v>
+        <v>82000</v>
       </c>
       <c r="J65" s="4">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="K65" s="4">
-        <v>59024</v>
+        <v>46000</v>
       </c>
       <c r="L65" s="4">
-        <v>269606</v>
+        <v>106500</v>
       </c>
       <c r="M65" s="3">
-        <v>177907</v>
+        <v>22221</v>
       </c>
       <c r="N65" s="4">
-        <v>273152</v>
+        <v>0</v>
       </c>
       <c r="O65" s="4">
-        <v>114755</v>
+        <v>63700</v>
       </c>
       <c r="P65" s="3">
-        <v>2726168</v>
+        <v>1415531</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4000,49 +4012,49 @@
         <v>80</v>
       </c>
       <c r="B66" s="3">
-        <v>549765</v>
+        <v>67373</v>
       </c>
       <c r="C66" s="4">
-        <v>334875</v>
+        <v>43546</v>
       </c>
       <c r="D66" s="4">
-        <v>210365</v>
+        <v>89928</v>
       </c>
       <c r="E66" s="4">
         <v>0</v>
       </c>
       <c r="F66" s="4">
-        <v>10690</v>
+        <v>500</v>
       </c>
       <c r="G66" s="4">
-        <v>2725</v>
+        <v>2700</v>
       </c>
       <c r="H66" s="4">
-        <v>533085</v>
+        <v>33561</v>
       </c>
       <c r="I66" s="4">
-        <v>106490</v>
+        <v>18760</v>
       </c>
       <c r="J66" s="4">
         <v>0</v>
       </c>
       <c r="K66" s="4">
-        <v>136230</v>
+        <v>0</v>
       </c>
       <c r="L66" s="4">
-        <v>259185</v>
+        <v>31151</v>
       </c>
       <c r="M66" s="3">
-        <v>208555</v>
+        <v>17821</v>
       </c>
       <c r="N66" s="4">
-        <v>190040</v>
+        <v>38473</v>
       </c>
       <c r="O66" s="4">
-        <v>0</v>
+        <v>4130</v>
       </c>
       <c r="P66" s="3">
-        <v>2542005</v>
+        <v>347943</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4050,49 +4062,49 @@
         <v>81</v>
       </c>
       <c r="B67" s="3">
-        <v>987979</v>
+        <v>1066640</v>
       </c>
       <c r="C67" s="4">
-        <v>589123</v>
+        <v>828284</v>
       </c>
       <c r="D67" s="4">
-        <v>281332</v>
+        <v>316706</v>
       </c>
       <c r="E67" s="4">
-        <v>100000</v>
+        <v>140362</v>
       </c>
       <c r="F67" s="4">
-        <v>10065</v>
+        <v>5950</v>
       </c>
       <c r="G67" s="4">
-        <v>92814</v>
+        <v>11061</v>
       </c>
       <c r="H67" s="4">
-        <v>665200</v>
+        <v>1568682</v>
       </c>
       <c r="I67" s="4">
-        <v>285504</v>
+        <v>241943</v>
       </c>
       <c r="J67" s="4">
         <v>0</v>
       </c>
       <c r="K67" s="4">
-        <v>204178</v>
+        <v>194231</v>
       </c>
       <c r="L67" s="4">
-        <v>654242</v>
+        <v>1834539</v>
       </c>
       <c r="M67" s="3">
-        <v>482451</v>
+        <v>190626</v>
       </c>
       <c r="N67" s="4">
-        <v>585500</v>
+        <v>614000</v>
       </c>
       <c r="O67" s="4">
         <v>0</v>
       </c>
       <c r="P67" s="3">
-        <v>4938388</v>
+        <v>7013024</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4100,49 +4112,49 @@
         <v>82</v>
       </c>
       <c r="B68" s="3">
-        <v>232246</v>
+        <v>51807</v>
       </c>
       <c r="C68" s="4">
-        <v>245551</v>
+        <v>29500</v>
       </c>
       <c r="D68" s="4">
-        <v>28779</v>
+        <v>35082</v>
       </c>
       <c r="E68" s="4">
         <v>0</v>
       </c>
       <c r="F68" s="4">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="G68" s="4">
-        <v>10600</v>
+        <v>2300</v>
       </c>
       <c r="H68" s="4">
-        <v>296316</v>
+        <v>70700</v>
       </c>
       <c r="I68" s="4">
-        <v>55681</v>
+        <v>31100</v>
       </c>
       <c r="J68" s="4">
         <v>0</v>
       </c>
       <c r="K68" s="4">
-        <v>26370</v>
+        <v>11788</v>
       </c>
       <c r="L68" s="4">
-        <v>61700</v>
+        <v>32850</v>
       </c>
       <c r="M68" s="3">
-        <v>19765</v>
+        <v>30691</v>
       </c>
       <c r="N68" s="4">
-        <v>9254</v>
+        <v>0</v>
       </c>
       <c r="O68" s="4">
         <v>0</v>
       </c>
       <c r="P68" s="3">
-        <v>986262</v>
+        <v>299018</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4150,49 +4162,49 @@
         <v>83</v>
       </c>
       <c r="B69" s="3">
-        <v>208641</v>
+        <v>435625</v>
       </c>
       <c r="C69" s="4">
-        <v>265965</v>
+        <v>251158</v>
       </c>
       <c r="D69" s="4">
-        <v>166333</v>
+        <v>165000</v>
       </c>
       <c r="E69" s="4">
         <v>0</v>
       </c>
       <c r="F69" s="4">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G69" s="4">
-        <v>2478</v>
+        <v>7300</v>
       </c>
       <c r="H69" s="4">
-        <v>522429</v>
+        <v>765993</v>
       </c>
       <c r="I69" s="4">
-        <v>124486</v>
+        <v>201648</v>
       </c>
       <c r="J69" s="4">
         <v>0</v>
       </c>
       <c r="K69" s="4">
-        <v>63806</v>
+        <v>59024</v>
       </c>
       <c r="L69" s="4">
-        <v>14600</v>
+        <v>269606</v>
       </c>
       <c r="M69" s="3">
-        <v>93570</v>
+        <v>177907</v>
       </c>
       <c r="N69" s="4">
-        <v>840</v>
+        <v>273152</v>
       </c>
       <c r="O69" s="4">
-        <v>0</v>
+        <v>114755</v>
       </c>
       <c r="P69" s="3">
-        <v>1465148</v>
+        <v>2726168</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4200,49 +4212,49 @@
         <v>84</v>
       </c>
       <c r="B70" s="3">
-        <v>333330</v>
+        <v>549765</v>
       </c>
       <c r="C70" s="4">
-        <v>138729</v>
+        <v>334875</v>
       </c>
       <c r="D70" s="4">
-        <v>123865</v>
+        <v>210365</v>
       </c>
       <c r="E70" s="4">
         <v>0</v>
       </c>
       <c r="F70" s="4">
-        <v>7500</v>
+        <v>10690</v>
       </c>
       <c r="G70" s="4">
-        <v>11296</v>
+        <v>2725</v>
       </c>
       <c r="H70" s="4">
-        <v>156527</v>
+        <v>533085</v>
       </c>
       <c r="I70" s="4">
-        <v>39001</v>
+        <v>106490</v>
       </c>
       <c r="J70" s="4">
         <v>0</v>
       </c>
       <c r="K70" s="4">
-        <v>25836</v>
+        <v>136230</v>
       </c>
       <c r="L70" s="4">
-        <v>25000</v>
+        <v>259185</v>
       </c>
       <c r="M70" s="3">
-        <v>123348</v>
+        <v>208555</v>
       </c>
       <c r="N70" s="4">
-        <v>5000</v>
+        <v>190040</v>
       </c>
       <c r="O70" s="4">
-        <v>2981</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
-        <v>992413</v>
+        <v>2542005</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4250,49 +4262,49 @@
         <v>85</v>
       </c>
       <c r="B71" s="3">
-        <v>348196</v>
+        <v>987979</v>
       </c>
       <c r="C71" s="4">
-        <v>342033</v>
+        <v>589123</v>
       </c>
       <c r="D71" s="4">
-        <v>217016</v>
+        <v>281332</v>
       </c>
       <c r="E71" s="4">
-        <v>37000</v>
+        <v>100000</v>
       </c>
       <c r="F71" s="4">
-        <v>3000</v>
+        <v>10065</v>
       </c>
       <c r="G71" s="4">
-        <v>4000</v>
+        <v>92814</v>
       </c>
       <c r="H71" s="4">
-        <v>312144</v>
+        <v>665200</v>
       </c>
       <c r="I71" s="4">
-        <v>111604</v>
+        <v>285504</v>
       </c>
       <c r="J71" s="4">
         <v>0</v>
       </c>
       <c r="K71" s="4">
-        <v>105668</v>
+        <v>204178</v>
       </c>
       <c r="L71" s="4">
-        <v>707060</v>
+        <v>654242</v>
       </c>
       <c r="M71" s="3">
-        <v>0</v>
+        <v>482451</v>
       </c>
       <c r="N71" s="4">
-        <v>285718</v>
+        <v>585500</v>
       </c>
       <c r="O71" s="4">
         <v>0</v>
       </c>
       <c r="P71" s="3">
-        <v>2473439</v>
+        <v>4938388</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4300,49 +4312,49 @@
         <v>86</v>
       </c>
       <c r="B72" s="3">
-        <v>412416</v>
+        <v>232246</v>
       </c>
       <c r="C72" s="4">
-        <v>483599</v>
+        <v>245551</v>
       </c>
       <c r="D72" s="4">
-        <v>95914</v>
+        <v>28779</v>
       </c>
       <c r="E72" s="4">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="F72" s="4">
         <v>0</v>
       </c>
       <c r="G72" s="4">
-        <v>20212</v>
+        <v>10600</v>
       </c>
       <c r="H72" s="4">
-        <v>583800</v>
+        <v>296316</v>
       </c>
       <c r="I72" s="4">
-        <v>121326</v>
+        <v>55681</v>
       </c>
       <c r="J72" s="4">
         <v>0</v>
       </c>
       <c r="K72" s="4">
-        <v>78100</v>
+        <v>26370</v>
       </c>
       <c r="L72" s="4">
-        <v>453065</v>
+        <v>61700</v>
       </c>
       <c r="M72" s="3">
-        <v>46741</v>
+        <v>19765</v>
       </c>
       <c r="N72" s="4">
-        <v>68424</v>
+        <v>9254</v>
       </c>
       <c r="O72" s="4">
         <v>0</v>
       </c>
       <c r="P72" s="3">
-        <v>2413597</v>
+        <v>986262</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4350,49 +4362,49 @@
         <v>87</v>
       </c>
       <c r="B73" s="3">
-        <v>230963</v>
+        <v>208641</v>
       </c>
       <c r="C73" s="4">
-        <v>239376</v>
+        <v>265965</v>
       </c>
       <c r="D73" s="4">
-        <v>202450</v>
+        <v>166333</v>
       </c>
       <c r="E73" s="4">
         <v>0</v>
       </c>
       <c r="F73" s="4">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G73" s="4">
-        <v>2000</v>
+        <v>2478</v>
       </c>
       <c r="H73" s="4">
-        <v>667870</v>
+        <v>522429</v>
       </c>
       <c r="I73" s="4">
-        <v>90500</v>
+        <v>124486</v>
       </c>
       <c r="J73" s="4">
         <v>0</v>
       </c>
       <c r="K73" s="4">
-        <v>53078</v>
+        <v>63806</v>
       </c>
       <c r="L73" s="4">
-        <v>359680</v>
+        <v>14600</v>
       </c>
       <c r="M73" s="3">
-        <v>88870</v>
+        <v>93570</v>
       </c>
       <c r="N73" s="4">
-        <v>119993</v>
+        <v>840</v>
       </c>
       <c r="O73" s="4">
         <v>0</v>
       </c>
       <c r="P73" s="3">
-        <v>2059780</v>
+        <v>1465148</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4400,49 +4412,49 @@
         <v>88</v>
       </c>
       <c r="B74" s="3">
-        <v>225489</v>
+        <v>333330</v>
       </c>
       <c r="C74" s="4">
-        <v>197423</v>
+        <v>138729</v>
       </c>
       <c r="D74" s="4">
-        <v>128341</v>
+        <v>123865</v>
       </c>
       <c r="E74" s="4">
         <v>0</v>
       </c>
       <c r="F74" s="4">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="G74" s="4">
-        <v>2760</v>
+        <v>11296</v>
       </c>
       <c r="H74" s="4">
-        <v>221672</v>
+        <v>156527</v>
       </c>
       <c r="I74" s="4">
-        <v>77805</v>
+        <v>39001</v>
       </c>
       <c r="J74" s="4">
         <v>0</v>
       </c>
       <c r="K74" s="4">
-        <v>122952</v>
+        <v>25836</v>
       </c>
       <c r="L74" s="4">
-        <v>523041</v>
+        <v>25000</v>
       </c>
       <c r="M74" s="3">
-        <v>152466</v>
+        <v>123348</v>
       </c>
       <c r="N74" s="4">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="O74" s="4">
-        <v>0</v>
+        <v>2981</v>
       </c>
       <c r="P74" s="3">
-        <v>1653949</v>
+        <v>992413</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4450,49 +4462,49 @@
         <v>89</v>
       </c>
       <c r="B75" s="3">
-        <v>339008</v>
+        <v>348196</v>
       </c>
       <c r="C75" s="4">
-        <v>213284</v>
+        <v>342033</v>
       </c>
       <c r="D75" s="4">
-        <v>43592</v>
+        <v>217016</v>
       </c>
       <c r="E75" s="4">
-        <v>0</v>
+        <v>37000</v>
       </c>
       <c r="F75" s="4">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G75" s="4">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="H75" s="4">
-        <v>234205</v>
+        <v>312144</v>
       </c>
       <c r="I75" s="4">
-        <v>55078</v>
+        <v>111604</v>
       </c>
       <c r="J75" s="4">
         <v>0</v>
       </c>
       <c r="K75" s="4">
-        <v>57651</v>
+        <v>105668</v>
       </c>
       <c r="L75" s="4">
-        <v>1000</v>
+        <v>707060</v>
       </c>
       <c r="M75" s="3">
-        <v>35104</v>
+        <v>0</v>
       </c>
       <c r="N75" s="4">
-        <v>45000</v>
+        <v>285718</v>
       </c>
       <c r="O75" s="4">
         <v>0</v>
       </c>
       <c r="P75" s="3">
-        <v>1023922</v>
+        <v>2473439</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4500,49 +4512,49 @@
         <v>90</v>
       </c>
       <c r="B76" s="3">
-        <v>122047</v>
+        <v>412416</v>
       </c>
       <c r="C76" s="4">
-        <v>67630</v>
+        <v>483599</v>
       </c>
       <c r="D76" s="4">
-        <v>78310</v>
+        <v>95914</v>
       </c>
       <c r="E76" s="4">
-        <v>20475</v>
+        <v>50000</v>
       </c>
       <c r="F76" s="4">
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="G76" s="4">
-        <v>600</v>
+        <v>20212</v>
       </c>
       <c r="H76" s="4">
-        <v>163000</v>
+        <v>583800</v>
       </c>
       <c r="I76" s="4">
-        <v>34605</v>
+        <v>121326</v>
       </c>
       <c r="J76" s="4">
         <v>0</v>
       </c>
       <c r="K76" s="4">
-        <v>19377</v>
+        <v>78100</v>
       </c>
       <c r="L76" s="4">
-        <v>36050</v>
+        <v>453065</v>
       </c>
       <c r="M76" s="3">
-        <v>82698</v>
+        <v>46741</v>
       </c>
       <c r="N76" s="4">
-        <v>0</v>
+        <v>68424</v>
       </c>
       <c r="O76" s="4">
         <v>0</v>
       </c>
       <c r="P76" s="3">
-        <v>628992</v>
+        <v>2413597</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4550,49 +4562,49 @@
         <v>91</v>
       </c>
       <c r="B77" s="3">
-        <v>313139</v>
+        <v>230963</v>
       </c>
       <c r="C77" s="4">
-        <v>211713</v>
+        <v>239376</v>
       </c>
       <c r="D77" s="4">
-        <v>120988</v>
+        <v>202450</v>
       </c>
       <c r="E77" s="4">
         <v>0</v>
       </c>
       <c r="F77" s="4">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="G77" s="4">
-        <v>4290</v>
+        <v>2000</v>
       </c>
       <c r="H77" s="4">
-        <v>384200</v>
+        <v>667870</v>
       </c>
       <c r="I77" s="4">
-        <v>70270</v>
+        <v>90500</v>
       </c>
       <c r="J77" s="4">
         <v>0</v>
       </c>
       <c r="K77" s="4">
-        <v>46774</v>
+        <v>53078</v>
       </c>
       <c r="L77" s="4">
-        <v>134635</v>
+        <v>359680</v>
       </c>
       <c r="M77" s="3">
-        <v>207894</v>
+        <v>88870</v>
       </c>
       <c r="N77" s="4">
-        <v>3000</v>
+        <v>119993</v>
       </c>
       <c r="O77" s="4">
-        <v>9611</v>
+        <v>0</v>
       </c>
       <c r="P77" s="3">
-        <v>1508014</v>
+        <v>2059780</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4600,40 +4612,40 @@
         <v>92</v>
       </c>
       <c r="B78" s="3">
-        <v>128496</v>
+        <v>225489</v>
       </c>
       <c r="C78" s="4">
-        <v>59568</v>
+        <v>197423</v>
       </c>
       <c r="D78" s="4">
-        <v>102428</v>
+        <v>128341</v>
       </c>
       <c r="E78" s="4">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="F78" s="4">
-        <v>744</v>
+        <v>2000</v>
       </c>
       <c r="G78" s="4">
-        <v>1500</v>
+        <v>2760</v>
       </c>
       <c r="H78" s="4">
-        <v>116879</v>
+        <v>221672</v>
       </c>
       <c r="I78" s="4">
-        <v>27212</v>
+        <v>77805</v>
       </c>
       <c r="J78" s="4">
         <v>0</v>
       </c>
       <c r="K78" s="4">
-        <v>18894</v>
+        <v>122952</v>
       </c>
       <c r="L78" s="4">
-        <v>48000</v>
+        <v>523041</v>
       </c>
       <c r="M78" s="3">
-        <v>33905</v>
+        <v>152466</v>
       </c>
       <c r="N78" s="4">
         <v>0</v>
@@ -4642,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="P78" s="3">
-        <v>540126</v>
+        <v>1653949</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4650,49 +4662,49 @@
         <v>93</v>
       </c>
       <c r="B79" s="3">
-        <v>149832</v>
+        <v>339008</v>
       </c>
       <c r="C79" s="4">
-        <v>117892</v>
+        <v>213284</v>
       </c>
       <c r="D79" s="4">
-        <v>62203</v>
+        <v>43592</v>
       </c>
       <c r="E79" s="4">
-        <v>72588</v>
+        <v>0</v>
       </c>
       <c r="F79" s="4">
         <v>0</v>
       </c>
       <c r="G79" s="4">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="H79" s="4">
-        <v>126310</v>
+        <v>234205</v>
       </c>
       <c r="I79" s="4">
-        <v>35200</v>
+        <v>55078</v>
       </c>
       <c r="J79" s="4">
         <v>0</v>
       </c>
       <c r="K79" s="4">
-        <v>26339</v>
+        <v>57651</v>
       </c>
       <c r="L79" s="4">
-        <v>39422</v>
+        <v>1000</v>
       </c>
       <c r="M79" s="3">
-        <v>29571</v>
+        <v>35104</v>
       </c>
       <c r="N79" s="4">
-        <v>1500</v>
+        <v>45000</v>
       </c>
       <c r="O79" s="4">
-        <v>39113</v>
+        <v>0</v>
       </c>
       <c r="P79" s="3">
-        <v>700670</v>
+        <v>1023922</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -4700,49 +4712,49 @@
         <v>94</v>
       </c>
       <c r="B80" s="3">
-        <v>293837</v>
+        <v>122047</v>
       </c>
       <c r="C80" s="4">
-        <v>219205</v>
+        <v>67630</v>
       </c>
       <c r="D80" s="4">
-        <v>183982</v>
+        <v>78310</v>
       </c>
       <c r="E80" s="4">
-        <v>0</v>
+        <v>20475</v>
       </c>
       <c r="F80" s="4">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="G80" s="4">
-        <v>4600</v>
+        <v>600</v>
       </c>
       <c r="H80" s="4">
-        <v>395487</v>
+        <v>163000</v>
       </c>
       <c r="I80" s="4">
-        <v>87304</v>
+        <v>34605</v>
       </c>
       <c r="J80" s="4">
         <v>0</v>
       </c>
       <c r="K80" s="4">
-        <v>48848</v>
+        <v>19377</v>
       </c>
       <c r="L80" s="4">
-        <v>118473</v>
+        <v>36050</v>
       </c>
       <c r="M80" s="3">
-        <v>180121</v>
+        <v>82698</v>
       </c>
       <c r="N80" s="4">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="O80" s="4">
         <v>0</v>
       </c>
       <c r="P80" s="3">
-        <v>1540857</v>
+        <v>628992</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -4750,49 +4762,49 @@
         <v>95</v>
       </c>
       <c r="B81" s="3">
-        <v>356130</v>
+        <v>313139</v>
       </c>
       <c r="C81" s="4">
-        <v>349443</v>
+        <v>211713</v>
       </c>
       <c r="D81" s="4">
-        <v>143400</v>
+        <v>120988</v>
       </c>
       <c r="E81" s="4">
-        <v>13240</v>
+        <v>0</v>
       </c>
       <c r="F81" s="4">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G81" s="4">
-        <v>21384</v>
+        <v>4290</v>
       </c>
       <c r="H81" s="4">
-        <v>473069</v>
+        <v>384200</v>
       </c>
       <c r="I81" s="4">
-        <v>97540</v>
+        <v>70270</v>
       </c>
       <c r="J81" s="4">
         <v>0</v>
       </c>
       <c r="K81" s="4">
-        <v>60923</v>
+        <v>46774</v>
       </c>
       <c r="L81" s="4">
-        <v>223086</v>
+        <v>134635</v>
       </c>
       <c r="M81" s="3">
-        <v>297125</v>
+        <v>207894</v>
       </c>
       <c r="N81" s="4">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="O81" s="4">
-        <v>0</v>
+        <v>9611</v>
       </c>
       <c r="P81" s="3">
-        <v>2035340</v>
+        <v>1508014</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -4800,49 +4812,49 @@
         <v>96</v>
       </c>
       <c r="B82" s="3">
-        <v>257082</v>
+        <v>128496</v>
       </c>
       <c r="C82" s="4">
-        <v>138630</v>
+        <v>59568</v>
       </c>
       <c r="D82" s="4">
-        <v>110783</v>
+        <v>102428</v>
       </c>
       <c r="E82" s="4">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F82" s="4">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="G82" s="4">
-        <v>2069</v>
+        <v>1500</v>
       </c>
       <c r="H82" s="4">
-        <v>376772</v>
+        <v>116879</v>
       </c>
       <c r="I82" s="4">
-        <v>50787</v>
+        <v>27212</v>
       </c>
       <c r="J82" s="4">
         <v>0</v>
       </c>
       <c r="K82" s="4">
-        <v>39166</v>
+        <v>18894</v>
       </c>
       <c r="L82" s="4">
-        <v>85572</v>
+        <v>48000</v>
       </c>
       <c r="M82" s="3">
-        <v>81554</v>
+        <v>33905</v>
       </c>
       <c r="N82" s="4">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="O82" s="4">
-        <v>14077</v>
+        <v>0</v>
       </c>
       <c r="P82" s="3">
-        <v>1176492</v>
+        <v>540126</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -4850,49 +4862,49 @@
         <v>97</v>
       </c>
       <c r="B83" s="3">
-        <v>155405</v>
+        <v>149832</v>
       </c>
       <c r="C83" s="4">
-        <v>86155</v>
+        <v>117892</v>
       </c>
       <c r="D83" s="4">
-        <v>71000</v>
+        <v>62203</v>
       </c>
       <c r="E83" s="4">
-        <v>0</v>
+        <v>72588</v>
       </c>
       <c r="F83" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G83" s="4">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="H83" s="4">
-        <v>111448</v>
+        <v>126310</v>
       </c>
       <c r="I83" s="4">
-        <v>49000</v>
+        <v>35200</v>
       </c>
       <c r="J83" s="4">
         <v>0</v>
       </c>
       <c r="K83" s="4">
-        <v>29376</v>
+        <v>26339</v>
       </c>
       <c r="L83" s="4">
-        <v>19000</v>
+        <v>39422</v>
       </c>
       <c r="M83" s="3">
-        <v>14924</v>
+        <v>29571</v>
       </c>
       <c r="N83" s="4">
-        <v>35000</v>
+        <v>1500</v>
       </c>
       <c r="O83" s="4">
-        <v>0</v>
+        <v>39113</v>
       </c>
       <c r="P83" s="3">
-        <v>572989</v>
+        <v>700670</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -4900,49 +4912,49 @@
         <v>98</v>
       </c>
       <c r="B84" s="3">
-        <v>299429</v>
+        <v>293837</v>
       </c>
       <c r="C84" s="4">
-        <v>180434</v>
+        <v>219205</v>
       </c>
       <c r="D84" s="4">
-        <v>108005</v>
+        <v>183982</v>
       </c>
       <c r="E84" s="4">
         <v>0</v>
       </c>
       <c r="F84" s="4">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G84" s="4">
-        <v>4260</v>
+        <v>4600</v>
       </c>
       <c r="H84" s="4">
-        <v>250032</v>
+        <v>395487</v>
       </c>
       <c r="I84" s="4">
-        <v>64855</v>
+        <v>87304</v>
       </c>
       <c r="J84" s="4">
         <v>0</v>
       </c>
       <c r="K84" s="4">
-        <v>38968</v>
+        <v>48848</v>
       </c>
       <c r="L84" s="4">
-        <v>260223</v>
+        <v>118473</v>
       </c>
       <c r="M84" s="3">
-        <v>82257</v>
+        <v>180121</v>
       </c>
       <c r="N84" s="4">
-        <v>13187</v>
+        <v>5000</v>
       </c>
       <c r="O84" s="4">
-        <v>8184</v>
+        <v>0</v>
       </c>
       <c r="P84" s="3">
-        <v>1309834</v>
+        <v>1540857</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -4950,49 +4962,49 @@
         <v>99</v>
       </c>
       <c r="B85" s="3">
-        <v>208522</v>
+        <v>356130</v>
       </c>
       <c r="C85" s="4">
-        <v>145147</v>
+        <v>349443</v>
       </c>
       <c r="D85" s="4">
-        <v>51250</v>
+        <v>143400</v>
       </c>
       <c r="E85" s="4">
-        <v>37435</v>
+        <v>13240</v>
       </c>
       <c r="F85" s="4">
         <v>0</v>
       </c>
       <c r="G85" s="4">
-        <v>500</v>
+        <v>21384</v>
       </c>
       <c r="H85" s="4">
-        <v>333250</v>
+        <v>473069</v>
       </c>
       <c r="I85" s="4">
-        <v>60000</v>
+        <v>97540</v>
       </c>
       <c r="J85" s="4">
         <v>0</v>
       </c>
       <c r="K85" s="4">
-        <v>32273</v>
+        <v>60923</v>
       </c>
       <c r="L85" s="4">
-        <v>39350</v>
+        <v>223086</v>
       </c>
       <c r="M85" s="3">
-        <v>55377</v>
+        <v>297125</v>
       </c>
       <c r="N85" s="4">
         <v>0</v>
       </c>
       <c r="O85" s="4">
-        <v>12513</v>
+        <v>0</v>
       </c>
       <c r="P85" s="3">
-        <v>975617</v>
+        <v>2035340</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5000,13 +5012,13 @@
         <v>100</v>
       </c>
       <c r="B86" s="3">
-        <v>343194</v>
+        <v>257082</v>
       </c>
       <c r="C86" s="4">
-        <v>125622</v>
+        <v>138630</v>
       </c>
       <c r="D86" s="4">
-        <v>60353</v>
+        <v>110783</v>
       </c>
       <c r="E86" s="4">
         <v>0</v>
@@ -5015,34 +5027,34 @@
         <v>0</v>
       </c>
       <c r="G86" s="4">
-        <v>987</v>
+        <v>2069</v>
       </c>
       <c r="H86" s="4">
-        <v>171028</v>
+        <v>376772</v>
       </c>
       <c r="I86" s="4">
-        <v>67907</v>
+        <v>50787</v>
       </c>
       <c r="J86" s="4">
         <v>0</v>
       </c>
       <c r="K86" s="4">
-        <v>19969</v>
+        <v>39166</v>
       </c>
       <c r="L86" s="4">
-        <v>18332</v>
+        <v>85572</v>
       </c>
       <c r="M86" s="3">
-        <v>49605</v>
+        <v>81554</v>
       </c>
       <c r="N86" s="4">
-        <v>9500</v>
+        <v>20000</v>
       </c>
       <c r="O86" s="4">
-        <v>0</v>
+        <v>14077</v>
       </c>
       <c r="P86" s="3">
-        <v>866497</v>
+        <v>1176492</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5050,49 +5062,49 @@
         <v>101</v>
       </c>
       <c r="B87" s="3">
-        <v>401873</v>
+        <v>155405</v>
       </c>
       <c r="C87" s="4">
-        <v>427413</v>
+        <v>86155</v>
       </c>
       <c r="D87" s="4">
-        <v>170000</v>
+        <v>71000</v>
       </c>
       <c r="E87" s="4">
         <v>0</v>
       </c>
       <c r="F87" s="4">
-        <v>7000</v>
+        <v>1000</v>
       </c>
       <c r="G87" s="4">
-        <v>8000</v>
+        <v>681</v>
       </c>
       <c r="H87" s="4">
-        <v>710433</v>
+        <v>111448</v>
       </c>
       <c r="I87" s="4">
-        <v>121478</v>
+        <v>49000</v>
       </c>
       <c r="J87" s="4">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="K87" s="4">
-        <v>98655</v>
+        <v>29376</v>
       </c>
       <c r="L87" s="4">
-        <v>262200</v>
+        <v>19000</v>
       </c>
       <c r="M87" s="3">
-        <v>130691</v>
+        <v>14924</v>
       </c>
       <c r="N87" s="4">
-        <v>17003</v>
+        <v>35000</v>
       </c>
       <c r="O87" s="4">
         <v>0</v>
       </c>
       <c r="P87" s="3">
-        <v>2360746</v>
+        <v>572989</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5100,49 +5112,49 @@
         <v>102</v>
       </c>
       <c r="B88" s="3">
-        <v>77269</v>
+        <v>299429</v>
       </c>
       <c r="C88" s="4">
-        <v>39994</v>
+        <v>180434</v>
       </c>
       <c r="D88" s="4">
-        <v>133711</v>
+        <v>108005</v>
       </c>
       <c r="E88" s="4">
         <v>0</v>
       </c>
       <c r="F88" s="4">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G88" s="4">
-        <v>0</v>
+        <v>4260</v>
       </c>
       <c r="H88" s="4">
-        <v>49317</v>
+        <v>250032</v>
       </c>
       <c r="I88" s="4">
-        <v>50710</v>
+        <v>64855</v>
       </c>
       <c r="J88" s="4">
-        <v>15489</v>
+        <v>0</v>
       </c>
       <c r="K88" s="4">
-        <v>39270</v>
+        <v>38968</v>
       </c>
       <c r="L88" s="4">
-        <v>110014</v>
+        <v>260223</v>
       </c>
       <c r="M88" s="3">
-        <v>35354</v>
+        <v>82257</v>
       </c>
       <c r="N88" s="4">
-        <v>21840</v>
+        <v>13187</v>
       </c>
       <c r="O88" s="4">
-        <v>0</v>
+        <v>8184</v>
       </c>
       <c r="P88" s="3">
-        <v>574468</v>
+        <v>1309834</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5150,49 +5162,49 @@
         <v>103</v>
       </c>
       <c r="B89" s="3">
-        <v>159946</v>
+        <v>208522</v>
       </c>
       <c r="C89" s="4">
-        <v>54482</v>
+        <v>145147</v>
       </c>
       <c r="D89" s="4">
-        <v>92500</v>
+        <v>51250</v>
       </c>
       <c r="E89" s="4">
-        <v>0</v>
+        <v>37435</v>
       </c>
       <c r="F89" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G89" s="4">
-        <v>14000</v>
+        <v>500</v>
       </c>
       <c r="H89" s="4">
-        <v>106930</v>
+        <v>333250</v>
       </c>
       <c r="I89" s="4">
-        <v>37340</v>
+        <v>60000</v>
       </c>
       <c r="J89" s="4">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K89" s="4">
-        <v>36500</v>
+        <v>32273</v>
       </c>
       <c r="L89" s="4">
-        <v>32500</v>
+        <v>39350</v>
       </c>
       <c r="M89" s="3">
-        <v>56236</v>
+        <v>55377</v>
       </c>
       <c r="N89" s="4">
         <v>0</v>
       </c>
       <c r="O89" s="4">
-        <v>0</v>
+        <v>12513</v>
       </c>
       <c r="P89" s="3">
-        <v>591934</v>
+        <v>975617</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5200,49 +5212,49 @@
         <v>104</v>
       </c>
       <c r="B90" s="3">
-        <v>281834</v>
+        <v>343194</v>
       </c>
       <c r="C90" s="4">
-        <v>310664</v>
+        <v>125622</v>
       </c>
       <c r="D90" s="4">
-        <v>133613</v>
+        <v>60353</v>
       </c>
       <c r="E90" s="4">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="F90" s="4">
         <v>0</v>
       </c>
       <c r="G90" s="4">
-        <v>3665</v>
+        <v>987</v>
       </c>
       <c r="H90" s="4">
-        <v>350926</v>
+        <v>171028</v>
       </c>
       <c r="I90" s="4">
-        <v>93754</v>
+        <v>67907</v>
       </c>
       <c r="J90" s="4">
         <v>0</v>
       </c>
       <c r="K90" s="4">
-        <v>50850</v>
+        <v>19969</v>
       </c>
       <c r="L90" s="4">
-        <v>33579</v>
+        <v>18332</v>
       </c>
       <c r="M90" s="3">
-        <v>43626</v>
+        <v>49605</v>
       </c>
       <c r="N90" s="4">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="O90" s="4">
-        <v>60502</v>
+        <v>0</v>
       </c>
       <c r="P90" s="3">
-        <v>1403013</v>
+        <v>866497</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5250,49 +5262,49 @@
         <v>105</v>
       </c>
       <c r="B91" s="3">
-        <v>169807</v>
+        <v>401873</v>
       </c>
       <c r="C91" s="4">
-        <v>178506</v>
+        <v>427413</v>
       </c>
       <c r="D91" s="4">
-        <v>67013</v>
+        <v>170000</v>
       </c>
       <c r="E91" s="4">
-        <v>63819</v>
+        <v>0</v>
       </c>
       <c r="F91" s="4">
-        <v>4564</v>
+        <v>7000</v>
       </c>
       <c r="G91" s="4">
-        <v>2641</v>
+        <v>8000</v>
       </c>
       <c r="H91" s="4">
-        <v>180439</v>
+        <v>710433</v>
       </c>
       <c r="I91" s="4">
-        <v>78516</v>
+        <v>121478</v>
       </c>
       <c r="J91" s="4">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="K91" s="4">
-        <v>50052</v>
+        <v>98655</v>
       </c>
       <c r="L91" s="4">
-        <v>53299</v>
+        <v>262200</v>
       </c>
       <c r="M91" s="3">
-        <v>45437</v>
+        <v>130691</v>
       </c>
       <c r="N91" s="4">
-        <v>110680</v>
+        <v>17003</v>
       </c>
       <c r="O91" s="4">
         <v>0</v>
       </c>
       <c r="P91" s="3">
-        <v>1004773</v>
+        <v>2360746</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5300,48 +5312,248 @@
         <v>106</v>
       </c>
       <c r="B92" s="3">
+        <v>77269</v>
+      </c>
+      <c r="C92" s="4">
+        <v>39994</v>
+      </c>
+      <c r="D92" s="4">
+        <v>133711</v>
+      </c>
+      <c r="E92" s="4">
+        <v>0</v>
+      </c>
+      <c r="F92" s="4">
+        <v>1500</v>
+      </c>
+      <c r="G92" s="4">
+        <v>0</v>
+      </c>
+      <c r="H92" s="4">
+        <v>49317</v>
+      </c>
+      <c r="I92" s="4">
+        <v>50710</v>
+      </c>
+      <c r="J92" s="4">
+        <v>15489</v>
+      </c>
+      <c r="K92" s="4">
+        <v>39270</v>
+      </c>
+      <c r="L92" s="4">
+        <v>110014</v>
+      </c>
+      <c r="M92" s="3">
+        <v>35354</v>
+      </c>
+      <c r="N92" s="4">
+        <v>21840</v>
+      </c>
+      <c r="O92" s="4">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>574468</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B93" s="3">
+        <v>159946</v>
+      </c>
+      <c r="C93" s="4">
+        <v>54482</v>
+      </c>
+      <c r="D93" s="4">
+        <v>92500</v>
+      </c>
+      <c r="E93" s="4">
+        <v>0</v>
+      </c>
+      <c r="F93" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G93" s="4">
+        <v>14000</v>
+      </c>
+      <c r="H93" s="4">
+        <v>106930</v>
+      </c>
+      <c r="I93" s="4">
+        <v>37340</v>
+      </c>
+      <c r="J93" s="4">
+        <v>500</v>
+      </c>
+      <c r="K93" s="4">
+        <v>36500</v>
+      </c>
+      <c r="L93" s="4">
+        <v>32500</v>
+      </c>
+      <c r="M93" s="3">
+        <v>56236</v>
+      </c>
+      <c r="N93" s="4">
+        <v>0</v>
+      </c>
+      <c r="O93" s="4">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>591934</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B94" s="3">
+        <v>281834</v>
+      </c>
+      <c r="C94" s="4">
+        <v>310664</v>
+      </c>
+      <c r="D94" s="4">
+        <v>133613</v>
+      </c>
+      <c r="E94" s="4">
+        <v>40000</v>
+      </c>
+      <c r="F94" s="4">
+        <v>0</v>
+      </c>
+      <c r="G94" s="4">
+        <v>3665</v>
+      </c>
+      <c r="H94" s="4">
+        <v>350926</v>
+      </c>
+      <c r="I94" s="4">
+        <v>93754</v>
+      </c>
+      <c r="J94" s="4">
+        <v>0</v>
+      </c>
+      <c r="K94" s="4">
+        <v>50850</v>
+      </c>
+      <c r="L94" s="4">
+        <v>33579</v>
+      </c>
+      <c r="M94" s="3">
+        <v>43626</v>
+      </c>
+      <c r="N94" s="4">
+        <v>0</v>
+      </c>
+      <c r="O94" s="4">
+        <v>60502</v>
+      </c>
+      <c r="P94" s="3">
+        <v>1403013</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B95" s="3">
+        <v>169807</v>
+      </c>
+      <c r="C95" s="4">
+        <v>178506</v>
+      </c>
+      <c r="D95" s="4">
+        <v>67013</v>
+      </c>
+      <c r="E95" s="4">
+        <v>63819</v>
+      </c>
+      <c r="F95" s="4">
+        <v>4564</v>
+      </c>
+      <c r="G95" s="4">
+        <v>2641</v>
+      </c>
+      <c r="H95" s="4">
+        <v>180439</v>
+      </c>
+      <c r="I95" s="4">
+        <v>78516</v>
+      </c>
+      <c r="J95" s="4">
+        <v>0</v>
+      </c>
+      <c r="K95" s="4">
+        <v>50052</v>
+      </c>
+      <c r="L95" s="4">
+        <v>53299</v>
+      </c>
+      <c r="M95" s="3">
+        <v>45437</v>
+      </c>
+      <c r="N95" s="4">
+        <v>110680</v>
+      </c>
+      <c r="O95" s="4">
+        <v>0</v>
+      </c>
+      <c r="P95" s="3">
+        <v>1004773</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B96" s="3">
         <v>110278</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C96" s="4">
         <v>64460</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D96" s="4">
         <v>54662</v>
       </c>
-      <c r="E92" s="4">
-        <v>0</v>
-      </c>
-      <c r="F92" s="4">
+      <c r="E96" s="4">
+        <v>0</v>
+      </c>
+      <c r="F96" s="4">
         <v>500</v>
       </c>
-      <c r="G92" s="4">
+      <c r="G96" s="4">
         <v>2400</v>
       </c>
-      <c r="H92" s="4">
+      <c r="H96" s="4">
         <v>134950</v>
       </c>
-      <c r="I92" s="4">
+      <c r="I96" s="4">
         <v>52223</v>
       </c>
-      <c r="J92" s="4">
-        <v>0</v>
-      </c>
-      <c r="K92" s="4">
+      <c r="J96" s="4">
+        <v>0</v>
+      </c>
+      <c r="K96" s="4">
         <v>7903</v>
       </c>
-      <c r="L92" s="4">
+      <c r="L96" s="4">
         <v>37367</v>
       </c>
-      <c r="M92" s="3">
+      <c r="M96" s="3">
         <v>2392</v>
       </c>
-      <c r="N92" s="4">
-        <v>0</v>
-      </c>
-      <c r="O92" s="4">
+      <c r="N96" s="4">
+        <v>0</v>
+      </c>
+      <c r="O96" s="4">
         <v>9595</v>
       </c>
-      <c r="P92" s="3">
+      <c r="P96" s="3">
         <v>476730</v>
       </c>
     </row>
